--- a/Projekt inż.xlsx
+++ b/Projekt inż.xlsx
@@ -388,6 +388,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="8" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,62 +445,26 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="8" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -777,16 +777,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -865,11 +865,11 @@
         <v>25</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1175,2956 +1175,2956 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="10.7109375" style="19" customWidth="1"/>
+    <col min="1" max="16" width="10.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="25" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>19</v>
-      </c>
-      <c r="B4" s="19">
-        <v>17</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="A4" s="10">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10">
         <v>3032</v>
       </c>
-      <c r="D4" s="19">
-        <v>994</v>
-      </c>
-      <c r="I4" s="27">
+      <c r="D4" s="10">
+        <v>547</v>
+      </c>
+      <c r="I4" s="15">
         <v>60</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="13">
         <v>14</v>
       </c>
       <c r="K4" s="4">
         <v>3012</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="13">
         <v>512</v>
       </c>
-      <c r="P4" s="20"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>27</v>
-      </c>
-      <c r="B5" s="19">
-        <v>17</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="A5" s="10">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10">
         <v>3025</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="10">
         <v>386</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="15">
         <v>15</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="13">
         <v>58</v>
       </c>
       <c r="K5" s="4">
         <v>3018</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="13">
         <v>542</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="S5" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
+      <c r="P5" s="11"/>
+      <c r="S5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="10">
         <v>8</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="10">
         <v>12</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="10">
         <v>3026</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="10">
         <v>395</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="15">
         <v>16</v>
       </c>
-      <c r="J6" s="24">
-        <v>4</v>
+      <c r="J6" s="13">
+        <v>14</v>
       </c>
       <c r="K6" s="4">
         <v>3019</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="13">
         <v>582</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="S6" s="31" t="s">
+      <c r="P6" s="11"/>
+      <c r="S6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31" t="s">
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
     </row>
     <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>24</v>
-      </c>
-      <c r="B7" s="19">
+      <c r="A7" s="10">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3026</v>
+      </c>
+      <c r="D7" s="10">
+        <v>397</v>
+      </c>
+      <c r="I7" s="15">
+        <v>17</v>
+      </c>
+      <c r="J7" s="13">
         <v>20</v>
-      </c>
-      <c r="C7" s="19">
-        <v>3026</v>
-      </c>
-      <c r="D7" s="19">
-        <v>397</v>
-      </c>
-      <c r="I7" s="27">
-        <v>3</v>
-      </c>
-      <c r="J7" s="24">
-        <v>4</v>
       </c>
       <c r="K7" s="4">
         <v>3027</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="13">
         <v>572</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="S7" s="30" t="s">
+      <c r="P7" s="11"/>
+      <c r="S7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="30" t="s">
+      <c r="T7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="30" t="s">
+      <c r="U7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="30" t="s">
+      <c r="V7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="W7" s="30" t="s">
+      <c r="W7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="X7" s="30" t="s">
+      <c r="X7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Y7" s="30" t="s">
+      <c r="Y7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Z7" s="30" t="s">
+      <c r="Z7" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="10">
         <v>16</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="10">
         <v>15</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="10">
         <v>3026</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="10">
         <v>395</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="15">
         <v>15</v>
       </c>
-      <c r="J8" s="24">
-        <v>3</v>
+      <c r="J8" s="13">
+        <v>13</v>
       </c>
       <c r="K8" s="4">
         <v>3023</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="13">
         <v>561</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="S8" s="33">
-        <f>A104-I104</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="T8" s="33">
-        <f t="shared" ref="T8:V8" si="0">B104-J104</f>
-        <v>10.29</v>
-      </c>
-      <c r="U8" s="33">
-        <f t="shared" si="0"/>
+      <c r="P8" s="11"/>
+      <c r="S8" s="20">
+        <f>I104-A104</f>
+        <v>2.620000000000001</v>
+      </c>
+      <c r="T8" s="20">
+        <f>J104-B104</f>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="U8" s="19">
+        <f t="shared" ref="T8:U8" si="0">C104-K104</f>
         <v>4.7200000000002547</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="20">
         <f>L104-D104</f>
-        <v>141.57000000000005</v>
-      </c>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
+        <v>131.71000000000004</v>
+      </c>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="10">
         <v>12</v>
       </c>
-      <c r="B9" s="19">
-        <v>22</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10">
         <v>3024</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="10">
         <v>372</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="15">
         <v>20</v>
       </c>
-      <c r="J9" s="24">
-        <v>6</v>
+      <c r="J9" s="13">
+        <v>18</v>
       </c>
       <c r="K9" s="4">
         <v>3035</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="13">
         <v>530</v>
       </c>
-      <c r="P9" s="20"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>23</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="A10" s="10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
         <v>13</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="10">
         <v>3027</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="10">
         <v>372</v>
       </c>
-      <c r="I10" s="27">
-        <v>17</v>
-      </c>
-      <c r="J10" s="24">
+      <c r="I10" s="15">
+        <v>17</v>
+      </c>
+      <c r="J10" s="13">
         <v>11</v>
       </c>
       <c r="K10" s="4">
         <v>3033</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="13">
         <v>583</v>
       </c>
-      <c r="P10" s="20"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>17</v>
-      </c>
-      <c r="B11" s="19">
-        <v>17</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="A11" s="10">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10">
         <v>3024</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="10">
         <v>382</v>
       </c>
-      <c r="I11" s="27">
-        <v>17</v>
-      </c>
-      <c r="J11" s="24">
-        <v>5</v>
+      <c r="I11" s="15">
+        <v>17</v>
+      </c>
+      <c r="J11" s="13">
+        <v>14</v>
       </c>
       <c r="K11" s="4">
         <v>3025</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="13">
         <v>551</v>
       </c>
-      <c r="P11" s="20"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
-        <v>18</v>
-      </c>
-      <c r="C12" s="19">
+      <c r="B12" s="10">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10">
         <v>3028</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="10">
         <v>371</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="15">
         <v>12</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="13">
         <v>11</v>
       </c>
       <c r="K12" s="4">
         <v>3035</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="13">
         <v>538</v>
       </c>
-      <c r="P12" s="20"/>
+      <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>24</v>
-      </c>
-      <c r="B13" s="19">
-        <v>26</v>
-      </c>
-      <c r="C13" s="19">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10">
         <v>3026</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="10">
         <v>392</v>
       </c>
-      <c r="I13" s="27">
-        <v>5</v>
-      </c>
-      <c r="J13" s="24">
-        <v>5</v>
+      <c r="I13" s="15">
+        <v>14</v>
+      </c>
+      <c r="J13" s="13">
+        <v>18</v>
       </c>
       <c r="K13" s="4">
         <v>3029</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="13">
         <v>523</v>
       </c>
-      <c r="P13" s="20"/>
+      <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>17</v>
-      </c>
-      <c r="B14" s="19">
+      <c r="A14" s="10">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10">
         <v>9</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="10">
         <v>3025</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="10">
         <v>379</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="15">
         <v>28</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="13">
         <v>12</v>
       </c>
       <c r="K14" s="4">
         <v>3020</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="13">
         <v>521</v>
       </c>
-      <c r="P14" s="20"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>11</v>
-      </c>
-      <c r="B15" s="19">
-        <v>24</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="A15" s="10">
+        <v>7</v>
+      </c>
+      <c r="B15" s="10">
+        <v>17</v>
+      </c>
+      <c r="C15" s="10">
         <v>3025</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="10">
         <v>368</v>
       </c>
-      <c r="I15" s="27">
-        <v>5</v>
-      </c>
-      <c r="J15" s="24">
-        <v>5</v>
+      <c r="I15" s="15">
+        <v>16</v>
+      </c>
+      <c r="J15" s="13">
+        <v>16</v>
       </c>
       <c r="K15" s="4">
         <v>3035</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="13">
         <v>536</v>
       </c>
-      <c r="P15" s="20"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>25</v>
-      </c>
-      <c r="B16" s="19">
-        <v>18</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="A16" s="10">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10">
         <v>3027</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="10">
         <v>384</v>
       </c>
-      <c r="I16" s="27">
-        <v>4</v>
-      </c>
-      <c r="J16" s="24">
+      <c r="I16" s="15">
+        <v>14</v>
+      </c>
+      <c r="J16" s="13">
         <v>12</v>
       </c>
       <c r="K16" s="4">
         <v>3008</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="13">
         <v>536</v>
       </c>
-      <c r="P16" s="20"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="10">
         <v>9</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="10">
         <v>16</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="10">
         <v>3026</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="10">
         <v>446</v>
       </c>
-      <c r="I17" s="27">
-        <v>17</v>
-      </c>
-      <c r="J17" s="24">
-        <v>6</v>
+      <c r="I17" s="15">
+        <v>17</v>
+      </c>
+      <c r="J17" s="13">
+        <v>15</v>
       </c>
       <c r="K17" s="4">
         <v>3018</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="13">
         <v>518</v>
       </c>
-      <c r="P17" s="20"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="10">
         <v>19</v>
       </c>
-      <c r="B18" s="19">
-        <v>17</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="B18" s="10">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10">
         <v>3026</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="10">
         <v>413</v>
       </c>
-      <c r="I18" s="27">
-        <v>17</v>
-      </c>
-      <c r="J18" s="24">
+      <c r="I18" s="15">
+        <v>17</v>
+      </c>
+      <c r="J18" s="13">
         <v>12</v>
       </c>
       <c r="K18" s="4">
         <v>3007</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="13">
         <v>519</v>
       </c>
-      <c r="P18" s="20"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="10">
         <v>19</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="10">
         <v>18</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="10">
         <v>3026</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="10">
         <v>879</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="15">
         <v>22</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="13">
         <v>17</v>
       </c>
       <c r="K19" s="4">
         <v>3017</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="13">
         <v>513</v>
       </c>
-      <c r="P19" s="20"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="10">
         <v>15</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="10">
         <v>16</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="10">
         <v>3026</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="10">
         <v>415</v>
       </c>
-      <c r="I20" s="27">
-        <v>6</v>
-      </c>
-      <c r="J20" s="24">
-        <v>3</v>
+      <c r="I20" s="15">
+        <v>24</v>
+      </c>
+      <c r="J20" s="13">
+        <v>13</v>
       </c>
       <c r="K20" s="4">
         <v>3006</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="13">
         <v>556</v>
       </c>
-      <c r="P20" s="20"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <v>24</v>
-      </c>
-      <c r="B21" s="19">
-        <v>17</v>
-      </c>
-      <c r="C21" s="19">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>14</v>
+      </c>
+      <c r="C21" s="10">
         <v>3026</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="10">
         <v>406</v>
       </c>
-      <c r="I21" s="27">
-        <v>2</v>
-      </c>
-      <c r="J21" s="24">
+      <c r="I21" s="15">
+        <v>20</v>
+      </c>
+      <c r="J21" s="13">
         <v>16</v>
       </c>
       <c r="K21" s="4">
         <v>3021</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="13">
         <v>505</v>
       </c>
-      <c r="P21" s="20"/>
+      <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="10">
         <v>10</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="10">
         <v>19</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="10">
         <v>3023</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="10">
         <v>407</v>
       </c>
-      <c r="I22" s="27">
-        <v>3</v>
-      </c>
-      <c r="J22" s="24">
-        <v>3</v>
+      <c r="I22" s="15">
+        <v>22</v>
+      </c>
+      <c r="J22" s="13">
+        <v>13</v>
       </c>
       <c r="K22" s="4">
         <v>3026</v>
       </c>
-      <c r="L22" s="24">
-        <v>1075</v>
-      </c>
-      <c r="P22" s="20"/>
+      <c r="L22" s="13">
+        <v>512</v>
+      </c>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="10">
         <v>18</v>
       </c>
-      <c r="B23" s="19">
-        <v>14</v>
-      </c>
-      <c r="C23" s="19">
+      <c r="B23" s="10">
+        <v>14</v>
+      </c>
+      <c r="C23" s="10">
         <v>3027</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="10">
         <v>492</v>
       </c>
-      <c r="I23" s="27">
-        <v>2</v>
-      </c>
-      <c r="J23" s="24">
+      <c r="I23" s="15">
+        <v>20</v>
+      </c>
+      <c r="J23" s="13">
         <v>12</v>
       </c>
       <c r="K23" s="4">
         <v>3018</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="13">
         <v>506</v>
       </c>
-      <c r="P23" s="20"/>
+      <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <v>17</v>
-      </c>
-      <c r="B24" s="19">
+      <c r="A24" s="10">
+        <v>17</v>
+      </c>
+      <c r="B24" s="10">
         <v>10</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="10">
         <v>3032</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="10">
         <v>407</v>
       </c>
-      <c r="I24" s="27">
-        <v>4</v>
-      </c>
-      <c r="J24" s="24">
-        <v>3</v>
+      <c r="I24" s="15">
+        <v>14</v>
+      </c>
+      <c r="J24" s="13">
+        <v>10</v>
       </c>
       <c r="K24" s="4">
         <v>3018</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="13">
         <v>499</v>
       </c>
-      <c r="P24" s="20"/>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="10">
         <v>18</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="10">
         <v>16</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="10">
         <v>3028</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="10">
         <v>411</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="15">
         <v>10</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="13">
         <v>17</v>
       </c>
       <c r="K25" s="4">
         <v>3020</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="13">
         <v>537</v>
       </c>
-      <c r="P25" s="20"/>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="10">
         <v>18</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="10">
         <v>16</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="10">
         <v>3030</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="10">
         <v>372</v>
       </c>
-      <c r="I26" s="27">
-        <v>4</v>
-      </c>
-      <c r="J26" s="24">
+      <c r="I26" s="15">
+        <v>14</v>
+      </c>
+      <c r="J26" s="13">
         <v>17</v>
       </c>
       <c r="K26" s="4">
         <v>3023</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="13">
         <v>525</v>
       </c>
-      <c r="P26" s="20"/>
+      <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>25</v>
-      </c>
-      <c r="B27" s="19">
-        <v>17</v>
-      </c>
-      <c r="C27" s="19">
+      <c r="A27" s="10">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10">
+        <v>17</v>
+      </c>
+      <c r="C27" s="10">
         <v>3029</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="10">
         <v>372</v>
       </c>
-      <c r="I27" s="27">
-        <v>3</v>
-      </c>
-      <c r="J27" s="24">
+      <c r="I27" s="15">
+        <v>15</v>
+      </c>
+      <c r="J27" s="13">
         <v>18</v>
       </c>
       <c r="K27" s="4">
         <v>3013</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="13">
         <v>524</v>
       </c>
-      <c r="P27" s="20"/>
+      <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="10">
         <v>8</v>
       </c>
-      <c r="B28" s="19">
-        <v>17</v>
-      </c>
-      <c r="C28" s="19">
+      <c r="B28" s="10">
+        <v>17</v>
+      </c>
+      <c r="C28" s="10">
         <v>3028</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="10">
         <v>380</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="15">
         <v>13</v>
       </c>
-      <c r="J28" s="24">
-        <v>6</v>
+      <c r="J28" s="13">
+        <v>13</v>
       </c>
       <c r="K28" s="4">
         <v>3012</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="13">
         <v>521</v>
       </c>
-      <c r="P28" s="20"/>
+      <c r="P28" s="11"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="10">
         <v>18</v>
       </c>
-      <c r="B29" s="19">
-        <v>17</v>
-      </c>
-      <c r="C29" s="19">
+      <c r="B29" s="10">
+        <v>17</v>
+      </c>
+      <c r="C29" s="10">
         <v>3030</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="10">
         <v>364</v>
       </c>
-      <c r="I29" s="27">
-        <v>4</v>
-      </c>
-      <c r="J29" s="24">
-        <v>8</v>
+      <c r="I29" s="15">
+        <v>14</v>
+      </c>
+      <c r="J29" s="13">
+        <v>13</v>
       </c>
       <c r="K29" s="4">
         <v>3014</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="13">
         <v>543</v>
       </c>
-      <c r="P29" s="20"/>
+      <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
-        <v>23</v>
-      </c>
-      <c r="B30" s="19">
-        <v>17</v>
-      </c>
-      <c r="C30" s="19">
+      <c r="A30" s="10">
+        <v>18</v>
+      </c>
+      <c r="B30" s="10">
+        <v>17</v>
+      </c>
+      <c r="C30" s="10">
         <v>3028</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="10">
         <v>406</v>
       </c>
-      <c r="I30" s="27">
-        <v>2</v>
-      </c>
-      <c r="J30" s="24">
-        <v>6</v>
+      <c r="I30" s="15">
+        <v>20</v>
+      </c>
+      <c r="J30" s="13">
+        <v>13</v>
       </c>
       <c r="K30" s="4">
         <v>3025</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="13">
         <v>527</v>
       </c>
-      <c r="P30" s="20"/>
+      <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>21</v>
-      </c>
-      <c r="B31" s="19">
-        <v>17</v>
-      </c>
-      <c r="C31" s="19">
+      <c r="A31" s="10">
+        <v>17</v>
+      </c>
+      <c r="B31" s="10">
+        <v>17</v>
+      </c>
+      <c r="C31" s="10">
         <v>3030</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="10">
         <v>366</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="15">
         <v>15</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="13">
         <v>20</v>
       </c>
       <c r="K31" s="4">
         <v>3020</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="13">
         <v>504</v>
       </c>
-      <c r="P31" s="20"/>
+      <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="10">
         <v>18</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="10">
         <v>18</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="10">
         <v>3029</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="10">
         <v>370</v>
       </c>
-      <c r="I32" s="27">
-        <v>17</v>
-      </c>
-      <c r="J32" s="24">
-        <v>3</v>
+      <c r="I32" s="15">
+        <v>17</v>
+      </c>
+      <c r="J32" s="13">
+        <v>12</v>
       </c>
       <c r="K32" s="4">
         <v>3026</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="13">
         <v>500</v>
       </c>
-      <c r="P32" s="20"/>
+      <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="A33" s="10">
         <v>10</v>
       </c>
-      <c r="B33" s="19">
-        <v>18</v>
-      </c>
-      <c r="C33" s="19">
+      <c r="B33" s="10">
+        <v>9</v>
+      </c>
+      <c r="C33" s="10">
         <v>3041</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="10">
         <v>383</v>
       </c>
-      <c r="I33" s="27">
-        <v>3</v>
-      </c>
-      <c r="J33" s="24">
-        <v>5</v>
+      <c r="I33" s="15">
+        <v>15</v>
+      </c>
+      <c r="J33" s="13">
+        <v>12</v>
       </c>
       <c r="K33" s="4">
         <v>3021</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="13">
         <v>542</v>
       </c>
-      <c r="P33" s="20"/>
+      <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="10">
         <v>16</v>
       </c>
-      <c r="B34" s="19">
-        <v>18</v>
-      </c>
-      <c r="C34" s="19">
+      <c r="B34" s="10">
+        <v>12</v>
+      </c>
+      <c r="C34" s="10">
         <v>3018</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="10">
         <v>359</v>
       </c>
-      <c r="I34" s="27">
-        <v>9</v>
-      </c>
-      <c r="J34" s="24">
-        <v>3</v>
+      <c r="I34" s="15">
+        <v>14</v>
+      </c>
+      <c r="J34" s="13">
+        <v>17</v>
       </c>
       <c r="K34" s="4">
         <v>3016</v>
       </c>
-      <c r="L34" s="24">
+      <c r="L34" s="13">
         <v>525</v>
       </c>
-      <c r="P34" s="20"/>
+      <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
-        <v>17</v>
-      </c>
-      <c r="B35" s="19">
+      <c r="A35" s="10">
+        <v>17</v>
+      </c>
+      <c r="B35" s="10">
         <v>18</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="10">
         <v>3026</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="10">
         <v>377</v>
       </c>
-      <c r="I35" s="27">
-        <v>4</v>
-      </c>
-      <c r="J35" s="24">
-        <v>5</v>
+      <c r="I35" s="15">
+        <v>16</v>
+      </c>
+      <c r="J35" s="13">
+        <v>14</v>
       </c>
       <c r="K35" s="4">
         <v>3011</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="13">
         <v>747</v>
       </c>
-      <c r="P35" s="20"/>
+      <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="10">
         <v>19</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="10">
         <v>16</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="10">
         <v>3030</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="10">
         <v>371</v>
       </c>
-      <c r="I36" s="27">
-        <v>2</v>
-      </c>
-      <c r="J36" s="24">
+      <c r="I36" s="15">
+        <v>20</v>
+      </c>
+      <c r="J36" s="13">
         <v>11</v>
       </c>
       <c r="K36" s="4">
         <v>3019</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="13">
         <v>540</v>
       </c>
-      <c r="P36" s="20"/>
+      <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="A37" s="10">
         <v>18</v>
       </c>
-      <c r="B37" s="19">
-        <v>20</v>
-      </c>
-      <c r="C37" s="19">
+      <c r="B37" s="10">
+        <v>17</v>
+      </c>
+      <c r="C37" s="10">
         <v>3029</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="10">
         <v>401</v>
       </c>
-      <c r="I37" s="27">
-        <v>5</v>
-      </c>
-      <c r="J37" s="24">
-        <v>4</v>
+      <c r="I37" s="15">
+        <v>18</v>
+      </c>
+      <c r="J37" s="13">
+        <v>13</v>
       </c>
       <c r="K37" s="4">
         <v>3011</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="13">
         <v>502</v>
       </c>
-      <c r="P37" s="20"/>
+      <c r="P37" s="11"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
-        <v>26</v>
-      </c>
-      <c r="B38" s="19">
+      <c r="A38" s="10">
+        <v>12</v>
+      </c>
+      <c r="B38" s="10">
         <v>16</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="10">
         <v>3029</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="10">
         <v>372</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="15">
         <v>11</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="13">
         <v>16</v>
       </c>
       <c r="K38" s="4">
         <v>3011</v>
       </c>
-      <c r="L38" s="24">
+      <c r="L38" s="13">
         <v>537</v>
       </c>
-      <c r="P38" s="20"/>
+      <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="10">
         <v>9</v>
       </c>
-      <c r="B39" s="19">
-        <v>17</v>
-      </c>
-      <c r="C39" s="19">
+      <c r="B39" s="10">
+        <v>17</v>
+      </c>
+      <c r="C39" s="10">
         <v>3030</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="10">
         <v>379</v>
       </c>
-      <c r="I39" s="27">
-        <v>3</v>
-      </c>
-      <c r="J39" s="24">
-        <v>3</v>
+      <c r="I39" s="15">
+        <v>13</v>
+      </c>
+      <c r="J39" s="13">
+        <v>10</v>
       </c>
       <c r="K39" s="4">
         <v>3005</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="13">
         <v>534</v>
       </c>
-      <c r="P39" s="20"/>
+      <c r="P39" s="11"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="10">
         <v>16</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="10">
         <v>19</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="10">
         <v>3029</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="10">
         <v>383</v>
       </c>
-      <c r="I40" s="27">
-        <v>9</v>
-      </c>
-      <c r="J40" s="24">
-        <v>3</v>
+      <c r="I40" s="15">
+        <v>18</v>
+      </c>
+      <c r="J40" s="13">
+        <v>8</v>
       </c>
       <c r="K40" s="4">
         <v>3010</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="13">
         <v>532</v>
       </c>
-      <c r="P40" s="20"/>
+      <c r="P40" s="11"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="10">
         <v>18</v>
       </c>
-      <c r="B41" s="19">
-        <v>23</v>
-      </c>
-      <c r="C41" s="19">
+      <c r="B41" s="10">
+        <v>12</v>
+      </c>
+      <c r="C41" s="10">
         <v>3029</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="10">
         <v>389</v>
       </c>
-      <c r="I41" s="27">
-        <v>2</v>
-      </c>
-      <c r="J41" s="24">
+      <c r="I41" s="15">
+        <v>17</v>
+      </c>
+      <c r="J41" s="13">
         <v>10</v>
       </c>
       <c r="K41" s="4">
         <v>3019</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="13">
         <v>505</v>
       </c>
-      <c r="P41" s="20"/>
+      <c r="P41" s="11"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="10">
         <v>18</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="10">
         <v>18</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="10">
         <v>3029</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="10">
         <v>372</v>
       </c>
-      <c r="I42" s="27">
-        <v>5</v>
-      </c>
-      <c r="J42" s="24">
-        <v>8</v>
+      <c r="I42" s="15">
+        <v>11</v>
+      </c>
+      <c r="J42" s="13">
+        <v>17</v>
       </c>
       <c r="K42" s="4">
         <v>3013</v>
       </c>
-      <c r="L42" s="24">
+      <c r="L42" s="13">
         <v>519</v>
       </c>
-      <c r="P42" s="20"/>
+      <c r="P42" s="11"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
-        <v>17</v>
-      </c>
-      <c r="B43" s="19">
+      <c r="A43" s="10">
+        <v>17</v>
+      </c>
+      <c r="B43" s="10">
         <v>8</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="10">
         <v>3027</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="10">
         <v>373</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="15">
         <v>13</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="13">
         <v>11</v>
       </c>
       <c r="K43" s="4">
         <v>3013</v>
       </c>
-      <c r="L43" s="24">
+      <c r="L43" s="13">
         <v>548</v>
       </c>
-      <c r="P43" s="20"/>
+      <c r="P43" s="11"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
-        <v>17</v>
-      </c>
-      <c r="B44" s="19">
-        <v>19</v>
-      </c>
-      <c r="C44" s="19">
+      <c r="A44" s="10">
+        <v>17</v>
+      </c>
+      <c r="B44" s="10">
+        <v>11</v>
+      </c>
+      <c r="C44" s="10">
         <v>3027</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="10">
         <v>377</v>
       </c>
-      <c r="I44" s="27">
-        <v>4</v>
-      </c>
-      <c r="J44" s="24">
-        <v>4</v>
+      <c r="I44" s="15">
+        <v>13</v>
+      </c>
+      <c r="J44" s="13">
+        <v>14</v>
       </c>
       <c r="K44" s="4">
         <v>3015</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="13">
         <v>533</v>
       </c>
-      <c r="P44" s="20"/>
+      <c r="P44" s="11"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="10">
         <v>18</v>
       </c>
-      <c r="B45" s="19">
-        <v>25</v>
-      </c>
-      <c r="C45" s="19">
+      <c r="B45" s="10">
+        <v>8</v>
+      </c>
+      <c r="C45" s="10">
         <v>3017</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="10">
         <v>359</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="15">
         <v>11</v>
       </c>
-      <c r="J45" s="24">
-        <v>6</v>
+      <c r="J45" s="13">
+        <v>8</v>
       </c>
       <c r="K45" s="4">
         <v>3012</v>
       </c>
-      <c r="L45" s="24">
+      <c r="L45" s="13">
         <v>521</v>
       </c>
-      <c r="P45" s="20"/>
+      <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>17</v>
-      </c>
-      <c r="B46" s="19">
-        <v>17</v>
-      </c>
-      <c r="C46" s="19">
+      <c r="A46" s="10">
+        <v>17</v>
+      </c>
+      <c r="B46" s="10">
+        <v>12</v>
+      </c>
+      <c r="C46" s="10">
         <v>3019</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="10">
         <v>372</v>
       </c>
-      <c r="I46" s="27">
-        <v>5</v>
-      </c>
-      <c r="J46" s="24">
-        <v>4</v>
+      <c r="I46" s="15">
+        <v>14</v>
+      </c>
+      <c r="J46" s="13">
+        <v>14</v>
       </c>
       <c r="K46" s="4">
         <v>3005</v>
       </c>
-      <c r="L46" s="24">
+      <c r="L46" s="13">
         <v>531</v>
       </c>
-      <c r="P46" s="20"/>
+      <c r="P46" s="11"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
-        <v>17</v>
-      </c>
-      <c r="B47" s="19">
+      <c r="A47" s="10">
+        <v>17</v>
+      </c>
+      <c r="B47" s="10">
         <v>9</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="10">
         <v>3018</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="10">
         <v>381</v>
       </c>
-      <c r="I47" s="27">
-        <v>4</v>
-      </c>
-      <c r="J47" s="24">
-        <v>3</v>
+      <c r="I47" s="15">
+        <v>19</v>
+      </c>
+      <c r="J47" s="13">
+        <v>13</v>
       </c>
       <c r="K47" s="4">
         <v>3012</v>
       </c>
-      <c r="L47" s="24">
+      <c r="L47" s="13">
         <v>537</v>
       </c>
-      <c r="P47" s="20"/>
+      <c r="P47" s="11"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
-        <v>28</v>
-      </c>
-      <c r="B48" s="19">
-        <v>25</v>
-      </c>
-      <c r="C48" s="19">
+      <c r="A48" s="10">
+        <v>18</v>
+      </c>
+      <c r="B48" s="10">
+        <v>7</v>
+      </c>
+      <c r="C48" s="10">
         <v>3018</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="10">
         <v>358</v>
       </c>
-      <c r="I48" s="27">
-        <v>10</v>
-      </c>
-      <c r="J48" s="24">
-        <v>5</v>
+      <c r="I48" s="15">
+        <v>17</v>
+      </c>
+      <c r="J48" s="13">
+        <v>15</v>
       </c>
       <c r="K48" s="4">
         <v>3019</v>
       </c>
-      <c r="L48" s="24">
+      <c r="L48" s="13">
         <v>578</v>
       </c>
-      <c r="P48" s="20"/>
+      <c r="P48" s="11"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="A49" s="10">
         <v>10</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="10">
         <v>7</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="10">
         <v>3017</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="10">
         <v>404</v>
       </c>
-      <c r="I49" s="27">
-        <v>5</v>
-      </c>
-      <c r="J49" s="24">
-        <v>9</v>
+      <c r="I49" s="15">
+        <v>24</v>
+      </c>
+      <c r="J49" s="13">
+        <v>14</v>
       </c>
       <c r="K49" s="4">
         <v>3005</v>
       </c>
-      <c r="L49" s="24">
+      <c r="L49" s="13">
         <v>496</v>
       </c>
-      <c r="P49" s="20"/>
+      <c r="P49" s="11"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
-        <v>17</v>
-      </c>
-      <c r="B50" s="19">
-        <v>19</v>
-      </c>
-      <c r="C50" s="19">
+      <c r="A50" s="10">
+        <v>17</v>
+      </c>
+      <c r="B50" s="10">
+        <v>10</v>
+      </c>
+      <c r="C50" s="10">
         <v>3019</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="10">
         <v>380</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="15">
         <v>13</v>
       </c>
-      <c r="J50" s="24">
-        <v>4</v>
+      <c r="J50" s="13">
+        <v>14</v>
       </c>
       <c r="K50" s="4">
         <v>3013</v>
       </c>
-      <c r="L50" s="24">
+      <c r="L50" s="13">
         <v>537</v>
       </c>
-      <c r="P50" s="20"/>
+      <c r="P50" s="11"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
+      <c r="A51" s="10">
         <v>18</v>
       </c>
-      <c r="B51" s="19">
-        <v>16</v>
-      </c>
-      <c r="C51" s="19">
+      <c r="B51" s="10">
+        <v>11</v>
+      </c>
+      <c r="C51" s="10">
         <v>3018</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="10">
         <v>375</v>
       </c>
-      <c r="I51" s="27">
-        <v>5</v>
-      </c>
-      <c r="J51" s="24">
-        <v>4</v>
+      <c r="I51" s="15">
+        <v>19</v>
+      </c>
+      <c r="J51" s="13">
+        <v>12</v>
       </c>
       <c r="K51" s="4">
         <v>3019</v>
       </c>
-      <c r="L51" s="24">
+      <c r="L51" s="13">
         <v>551</v>
       </c>
-      <c r="P51" s="20"/>
+      <c r="P51" s="11"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
+      <c r="A52" s="10">
         <v>18</v>
       </c>
-      <c r="B52" s="19">
-        <v>17</v>
-      </c>
-      <c r="C52" s="19">
+      <c r="B52" s="10">
+        <v>9</v>
+      </c>
+      <c r="C52" s="10">
         <v>3019</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="10">
         <v>380</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="15">
         <v>15</v>
       </c>
-      <c r="J52" s="24">
-        <v>8</v>
+      <c r="J52" s="13">
+        <v>13</v>
       </c>
       <c r="K52" s="4">
         <v>3017</v>
       </c>
-      <c r="L52" s="24">
+      <c r="L52" s="13">
         <v>510</v>
       </c>
-      <c r="P52" s="20"/>
+      <c r="P52" s="11"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
-        <v>17</v>
-      </c>
-      <c r="B53" s="19">
-        <v>17</v>
-      </c>
-      <c r="C53" s="19">
+      <c r="A53" s="10">
+        <v>17</v>
+      </c>
+      <c r="B53" s="10">
+        <v>17</v>
+      </c>
+      <c r="C53" s="10">
         <v>3018</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="10">
         <v>381</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I53" s="15">
         <v>36</v>
       </c>
-      <c r="J53" s="24">
-        <v>4</v>
+      <c r="J53" s="13">
+        <v>17</v>
       </c>
       <c r="K53" s="4">
         <v>3011</v>
       </c>
-      <c r="L53" s="24">
+      <c r="L53" s="13">
         <v>525</v>
       </c>
-      <c r="P53" s="20"/>
+      <c r="P53" s="11"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
+      <c r="A54" s="10">
         <v>19</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="10">
+        <v>9</v>
+      </c>
+      <c r="C54" s="10">
+        <v>3019</v>
+      </c>
+      <c r="D54" s="10">
+        <v>369</v>
+      </c>
+      <c r="I54" s="15">
         <v>25</v>
       </c>
-      <c r="C54" s="19">
-        <v>3019</v>
-      </c>
-      <c r="D54" s="19">
-        <v>369</v>
-      </c>
-      <c r="I54" s="27">
-        <v>25</v>
-      </c>
-      <c r="J54" s="24">
+      <c r="J54" s="13">
         <v>11</v>
       </c>
       <c r="K54" s="4">
         <v>3023</v>
       </c>
-      <c r="L54" s="24">
+      <c r="L54" s="13">
         <v>525</v>
       </c>
-      <c r="P54" s="20"/>
+      <c r="P54" s="11"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="19">
+      <c r="A55" s="10">
         <v>27</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="10">
         <v>16</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="10">
         <v>3018</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="10">
         <v>387</v>
       </c>
-      <c r="I55" s="27">
-        <v>8</v>
-      </c>
-      <c r="J55" s="24">
-        <v>4</v>
+      <c r="I55" s="15">
+        <v>26</v>
+      </c>
+      <c r="J55" s="13">
+        <v>10</v>
       </c>
       <c r="K55" s="4">
         <v>3019</v>
       </c>
-      <c r="L55" s="24">
+      <c r="L55" s="13">
         <v>536</v>
       </c>
-      <c r="P55" s="20"/>
+      <c r="P55" s="11"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="19">
+      <c r="A56" s="10">
         <v>8</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="10">
         <v>15</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="10">
         <v>3018</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="10">
         <v>361</v>
       </c>
-      <c r="I56" s="27">
-        <v>14</v>
-      </c>
-      <c r="J56" s="24">
-        <v>4</v>
+      <c r="I56" s="15">
+        <v>14</v>
+      </c>
+      <c r="J56" s="13">
+        <v>12</v>
       </c>
       <c r="K56" s="4">
         <v>3019</v>
       </c>
-      <c r="L56" s="24">
+      <c r="L56" s="13">
         <v>540</v>
       </c>
-      <c r="P56" s="20"/>
+      <c r="P56" s="11"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="19">
-        <v>24</v>
-      </c>
-      <c r="B57" s="19">
+      <c r="A57" s="10">
+        <v>10</v>
+      </c>
+      <c r="B57" s="10">
         <v>15</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="10">
         <v>3016</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="10">
         <v>387</v>
       </c>
-      <c r="I57" s="27">
-        <v>6</v>
-      </c>
-      <c r="J57" s="24">
-        <v>3</v>
+      <c r="I57" s="15">
+        <v>22</v>
+      </c>
+      <c r="J57" s="13">
+        <v>14</v>
       </c>
       <c r="K57" s="4">
         <v>3026</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="13">
         <v>699</v>
       </c>
-      <c r="P57" s="20"/>
+      <c r="P57" s="11"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="19">
+      <c r="A58" s="10">
+        <v>3</v>
+      </c>
+      <c r="B58" s="10">
         <v>16</v>
       </c>
-      <c r="B58" s="19">
+      <c r="C58" s="10">
+        <v>3019</v>
+      </c>
+      <c r="D58" s="10">
+        <v>385</v>
+      </c>
+      <c r="I58" s="15">
         <v>16</v>
       </c>
-      <c r="C58" s="19">
-        <v>3019</v>
-      </c>
-      <c r="D58" s="19">
-        <v>385</v>
-      </c>
-      <c r="I58" s="27">
-        <v>3</v>
-      </c>
-      <c r="J58" s="24">
-        <v>8</v>
+      <c r="J58" s="13">
+        <v>12</v>
       </c>
       <c r="K58" s="4">
         <v>3022</v>
       </c>
-      <c r="L58" s="24">
+      <c r="L58" s="13">
         <v>563</v>
       </c>
-      <c r="P58" s="20"/>
+      <c r="P58" s="11"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="19">
+      <c r="A59" s="10">
         <v>12</v>
       </c>
-      <c r="B59" s="19">
-        <v>29</v>
-      </c>
-      <c r="C59" s="19">
+      <c r="B59" s="10">
+        <v>14</v>
+      </c>
+      <c r="C59" s="10">
         <v>3018</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="10">
         <v>366</v>
       </c>
-      <c r="I59" s="27">
-        <v>3</v>
-      </c>
-      <c r="J59" s="24">
-        <v>4</v>
+      <c r="I59" s="15">
+        <v>17</v>
+      </c>
+      <c r="J59" s="13">
+        <v>14</v>
       </c>
       <c r="K59" s="4">
         <v>3023</v>
       </c>
-      <c r="L59" s="24">
+      <c r="L59" s="13">
         <v>530</v>
       </c>
-      <c r="P59" s="20"/>
+      <c r="P59" s="11"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="19">
-        <v>23</v>
-      </c>
-      <c r="B60" s="19">
+      <c r="A60" s="10">
+        <v>18</v>
+      </c>
+      <c r="B60" s="10">
         <v>9</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="10">
         <v>3019</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="10">
         <v>365</v>
       </c>
-      <c r="I60" s="27">
-        <v>11</v>
-      </c>
-      <c r="J60" s="24">
-        <v>2</v>
+      <c r="I60" s="15">
+        <v>14</v>
+      </c>
+      <c r="J60" s="13">
+        <v>15</v>
       </c>
       <c r="K60" s="4">
         <v>3014</v>
       </c>
-      <c r="L60" s="24">
+      <c r="L60" s="13">
         <v>502</v>
       </c>
-      <c r="P60" s="20"/>
+      <c r="P60" s="11"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
-        <v>17</v>
-      </c>
-      <c r="B61" s="19">
+      <c r="A61" s="10">
+        <v>17</v>
+      </c>
+      <c r="B61" s="10">
         <v>25</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="10">
         <v>3018</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="10">
         <v>383</v>
       </c>
-      <c r="I61" s="27">
-        <v>8</v>
-      </c>
-      <c r="J61" s="24">
-        <v>2</v>
+      <c r="I61" s="15">
+        <v>16</v>
+      </c>
+      <c r="J61" s="13">
+        <v>15</v>
       </c>
       <c r="K61" s="4">
         <v>3009</v>
       </c>
-      <c r="L61" s="24">
+      <c r="L61" s="13">
         <v>535</v>
       </c>
-      <c r="P61" s="20"/>
+      <c r="P61" s="11"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="19">
+      <c r="A62" s="10">
         <v>11</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B62" s="10">
         <v>15</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="10">
         <v>3019</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="10">
         <v>379</v>
       </c>
-      <c r="I62" s="27">
-        <v>14</v>
-      </c>
-      <c r="J62" s="24">
+      <c r="I62" s="15">
+        <v>14</v>
+      </c>
+      <c r="J62" s="13">
         <v>14</v>
       </c>
       <c r="K62" s="4">
         <v>3018</v>
       </c>
-      <c r="L62" s="24">
+      <c r="L62" s="13">
         <v>511</v>
       </c>
-      <c r="P62" s="20"/>
+      <c r="P62" s="11"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="19">
-        <v>24</v>
-      </c>
-      <c r="B63" s="19">
+      <c r="A63" s="10">
+        <v>9</v>
+      </c>
+      <c r="B63" s="10">
         <v>10</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="10">
         <v>3018</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="10">
         <v>404</v>
       </c>
-      <c r="I63" s="27">
+      <c r="I63" s="15">
         <v>15</v>
       </c>
-      <c r="J63" s="24">
+      <c r="J63" s="13">
         <v>13</v>
       </c>
       <c r="K63" s="4">
         <v>3009</v>
       </c>
-      <c r="L63" s="24">
+      <c r="L63" s="13">
         <v>527</v>
       </c>
-      <c r="P63" s="20"/>
+      <c r="P63" s="11"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="19">
-        <v>17</v>
-      </c>
-      <c r="B64" s="19">
+      <c r="A64" s="10">
+        <v>17</v>
+      </c>
+      <c r="B64" s="10">
         <v>16</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="10">
         <v>3022</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="10">
         <v>388</v>
       </c>
-      <c r="I64" s="27">
-        <v>5</v>
-      </c>
-      <c r="J64" s="24">
-        <v>4</v>
+      <c r="I64" s="15">
+        <v>19</v>
+      </c>
+      <c r="J64" s="13">
+        <v>12</v>
       </c>
       <c r="K64" s="4">
         <v>3022</v>
       </c>
-      <c r="L64" s="24">
+      <c r="L64" s="13">
         <v>537</v>
       </c>
-      <c r="P64" s="20"/>
+      <c r="P64" s="11"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="19">
+      <c r="A65" s="10">
         <v>11</v>
       </c>
-      <c r="B65" s="19">
-        <v>22</v>
-      </c>
-      <c r="C65" s="19">
+      <c r="B65" s="10">
+        <v>18</v>
+      </c>
+      <c r="C65" s="10">
         <v>3019</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="10">
         <v>388</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I65" s="15">
         <v>12</v>
       </c>
-      <c r="J65" s="24">
-        <v>3</v>
+      <c r="J65" s="13">
+        <v>17</v>
       </c>
       <c r="K65" s="4">
         <v>3018</v>
       </c>
-      <c r="L65" s="24">
+      <c r="L65" s="13">
         <v>557</v>
       </c>
-      <c r="P65" s="20"/>
+      <c r="P65" s="11"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="19">
-        <v>25</v>
-      </c>
-      <c r="B66" s="19">
+      <c r="A66" s="10">
+        <v>14</v>
+      </c>
+      <c r="B66" s="10">
         <v>10</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="10">
         <v>3018</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="10">
         <v>377</v>
       </c>
-      <c r="I66" s="27">
-        <v>4</v>
-      </c>
-      <c r="J66" s="24">
+      <c r="I66" s="15">
+        <v>15</v>
+      </c>
+      <c r="J66" s="13">
         <v>13</v>
       </c>
       <c r="K66" s="4">
         <v>3036</v>
       </c>
-      <c r="L66" s="24">
+      <c r="L66" s="13">
         <v>516</v>
       </c>
-      <c r="P66" s="20"/>
+      <c r="P66" s="11"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="19">
+      <c r="A67" s="10">
         <v>9</v>
       </c>
-      <c r="B67" s="19">
-        <v>17</v>
-      </c>
-      <c r="C67" s="19">
+      <c r="B67" s="10">
+        <v>17</v>
+      </c>
+      <c r="C67" s="10">
         <v>3017</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="10">
         <v>376</v>
       </c>
-      <c r="I67" s="27">
-        <v>10</v>
-      </c>
-      <c r="J67" s="24">
-        <v>3</v>
+      <c r="I67" s="15">
+        <v>19</v>
+      </c>
+      <c r="J67" s="13">
+        <v>13</v>
       </c>
       <c r="K67" s="4">
         <v>3031</v>
       </c>
-      <c r="L67" s="24">
+      <c r="L67" s="13">
         <v>546</v>
       </c>
-      <c r="P67" s="20"/>
+      <c r="P67" s="11"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="19">
+      <c r="A68" s="10">
         <v>19</v>
       </c>
-      <c r="B68" s="19">
-        <v>17</v>
-      </c>
-      <c r="C68" s="19">
+      <c r="B68" s="10">
+        <v>17</v>
+      </c>
+      <c r="C68" s="10">
         <v>3017</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="10">
         <v>380</v>
       </c>
-      <c r="I68" s="27">
-        <v>3</v>
-      </c>
-      <c r="J68" s="24">
-        <v>3</v>
+      <c r="I68" s="15">
+        <v>14</v>
+      </c>
+      <c r="J68" s="13">
+        <v>13</v>
       </c>
       <c r="K68" s="4">
         <v>3029</v>
       </c>
-      <c r="L68" s="24">
+      <c r="L68" s="13">
         <v>527</v>
       </c>
-      <c r="P68" s="20"/>
+      <c r="P68" s="11"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="19">
-        <v>19</v>
-      </c>
-      <c r="B69" s="19">
+      <c r="A69" s="10">
         <v>15</v>
       </c>
-      <c r="C69" s="19">
+      <c r="B69" s="10">
+        <v>15</v>
+      </c>
+      <c r="C69" s="10">
         <v>3018</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="10">
         <v>375</v>
       </c>
-      <c r="I69" s="27">
-        <v>8</v>
-      </c>
-      <c r="J69" s="24">
+      <c r="I69" s="15">
+        <v>20</v>
+      </c>
+      <c r="J69" s="13">
         <v>10</v>
       </c>
       <c r="K69" s="4">
         <v>3022</v>
       </c>
-      <c r="L69" s="24">
+      <c r="L69" s="13">
         <v>534</v>
       </c>
-      <c r="P69" s="20"/>
+      <c r="P69" s="11"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="19">
+      <c r="A70" s="10">
         <v>15</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="10">
         <v>18</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="10">
         <v>3018</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="10">
         <v>356</v>
       </c>
-      <c r="I70" s="27">
-        <v>11</v>
-      </c>
-      <c r="J70" s="24">
-        <v>2</v>
+      <c r="I70" s="15">
+        <v>12</v>
+      </c>
+      <c r="J70" s="13">
+        <v>22</v>
       </c>
       <c r="K70" s="4">
         <v>3034</v>
       </c>
-      <c r="L70" s="24">
+      <c r="L70" s="13">
         <v>528</v>
       </c>
-      <c r="P70" s="20"/>
+      <c r="P70" s="11"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="19">
-        <v>24</v>
-      </c>
-      <c r="B71" s="19">
-        <v>24</v>
-      </c>
-      <c r="C71" s="19">
+      <c r="A71" s="10">
+        <v>12</v>
+      </c>
+      <c r="B71" s="10">
+        <v>7</v>
+      </c>
+      <c r="C71" s="10">
         <v>3018</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="10">
         <v>366</v>
       </c>
-      <c r="I71" s="27">
-        <v>3</v>
-      </c>
-      <c r="J71" s="24">
-        <v>8</v>
+      <c r="I71" s="15">
+        <v>16</v>
+      </c>
+      <c r="J71" s="13">
+        <v>19</v>
       </c>
       <c r="K71" s="4">
         <v>3035</v>
       </c>
-      <c r="L71" s="24">
+      <c r="L71" s="13">
         <v>526</v>
       </c>
-      <c r="P71" s="20"/>
+      <c r="P71" s="11"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
+      <c r="A72" s="10">
         <v>10</v>
       </c>
-      <c r="B72" s="19">
+      <c r="B72" s="10">
         <v>9</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C72" s="10">
         <v>3018</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="10">
         <v>369</v>
       </c>
-      <c r="I72" s="27">
-        <v>9</v>
-      </c>
-      <c r="J72" s="24">
-        <v>7</v>
+      <c r="I72" s="15">
+        <v>14</v>
+      </c>
+      <c r="J72" s="13">
+        <v>13</v>
       </c>
       <c r="K72" s="4">
         <v>3018</v>
       </c>
-      <c r="L72" s="24">
+      <c r="L72" s="13">
         <v>539</v>
       </c>
-      <c r="P72" s="20"/>
+      <c r="P72" s="11"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="19">
-        <v>18</v>
-      </c>
-      <c r="B73" s="19">
-        <v>17</v>
-      </c>
-      <c r="C73" s="19">
+      <c r="A73" s="10">
+        <v>8</v>
+      </c>
+      <c r="B73" s="10">
+        <v>11</v>
+      </c>
+      <c r="C73" s="10">
         <v>3018</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="10">
         <v>396</v>
       </c>
-      <c r="I73" s="27">
+      <c r="I73" s="15">
         <v>33</v>
       </c>
-      <c r="J73" s="24">
-        <v>4</v>
+      <c r="J73" s="13">
+        <v>14</v>
       </c>
       <c r="K73" s="4">
         <v>3034</v>
       </c>
-      <c r="L73" s="24">
+      <c r="L73" s="13">
         <v>529</v>
       </c>
-      <c r="P73" s="20"/>
+      <c r="P73" s="11"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="19">
-        <v>17</v>
-      </c>
-      <c r="B74" s="19">
+      <c r="A74" s="10">
+        <v>17</v>
+      </c>
+      <c r="B74" s="10">
         <v>15</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="10">
         <v>3017</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="10">
         <v>367</v>
       </c>
-      <c r="I74" s="27">
-        <v>5</v>
-      </c>
-      <c r="J74" s="24">
-        <v>2</v>
+      <c r="I74" s="15">
+        <v>28</v>
+      </c>
+      <c r="J74" s="13">
+        <v>22</v>
       </c>
       <c r="K74" s="4">
         <v>3015</v>
       </c>
-      <c r="L74" s="24">
+      <c r="L74" s="13">
         <v>516</v>
       </c>
-      <c r="P74" s="20"/>
+      <c r="P74" s="11"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="19">
+      <c r="A75" s="10">
         <v>18</v>
       </c>
-      <c r="B75" s="19">
-        <v>17</v>
-      </c>
-      <c r="C75" s="19">
+      <c r="B75" s="10">
+        <v>11</v>
+      </c>
+      <c r="C75" s="10">
         <v>3018</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="10">
         <v>413</v>
       </c>
-      <c r="I75" s="27">
-        <v>5</v>
-      </c>
-      <c r="J75" s="24">
-        <v>5</v>
+      <c r="I75" s="15">
+        <v>16</v>
+      </c>
+      <c r="J75" s="13">
+        <v>15</v>
       </c>
       <c r="K75" s="4">
         <v>3015</v>
       </c>
-      <c r="L75" s="24">
+      <c r="L75" s="13">
         <v>526</v>
       </c>
-      <c r="P75" s="20"/>
+      <c r="P75" s="11"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="19">
-        <v>18</v>
-      </c>
-      <c r="B76" s="19">
+      <c r="A76" s="10">
+        <v>8</v>
+      </c>
+      <c r="B76" s="10">
         <v>16</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="10">
         <v>3018</v>
       </c>
-      <c r="D76" s="19">
-        <v>373</v>
-      </c>
-      <c r="I76" s="27">
-        <v>6</v>
-      </c>
-      <c r="J76" s="24">
-        <v>6</v>
+      <c r="D76" s="10">
+        <v>537</v>
+      </c>
+      <c r="I76" s="15">
+        <v>14</v>
+      </c>
+      <c r="J76" s="13">
+        <v>17</v>
       </c>
       <c r="K76" s="4">
         <v>3013</v>
       </c>
-      <c r="L76" s="24">
+      <c r="L76" s="13">
         <v>514</v>
       </c>
-      <c r="P76" s="20"/>
+      <c r="P76" s="11"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="19">
-        <v>25</v>
-      </c>
-      <c r="B77" s="19">
-        <v>25</v>
-      </c>
-      <c r="C77" s="19">
+      <c r="A77" s="10">
+        <v>13</v>
+      </c>
+      <c r="B77" s="10">
+        <v>9</v>
+      </c>
+      <c r="C77" s="10">
         <v>3017</v>
       </c>
-      <c r="D77" s="19">
-        <v>370</v>
-      </c>
-      <c r="I77" s="27">
-        <v>14</v>
-      </c>
-      <c r="J77" s="24">
-        <v>2</v>
+      <c r="D77" s="10">
+        <v>508</v>
+      </c>
+      <c r="I77" s="15">
+        <v>14</v>
+      </c>
+      <c r="J77" s="13">
+        <v>14</v>
       </c>
       <c r="K77" s="4">
         <v>3019</v>
       </c>
-      <c r="L77" s="24">
+      <c r="L77" s="13">
         <v>516</v>
       </c>
-      <c r="P77" s="20"/>
+      <c r="P77" s="11"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="19">
+      <c r="A78" s="10">
         <v>8</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="10">
         <v>11</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="10">
         <v>3018</v>
       </c>
-      <c r="D78" s="19">
-        <v>373</v>
-      </c>
-      <c r="I78" s="27">
+      <c r="D78" s="10">
+        <v>588</v>
+      </c>
+      <c r="I78" s="15">
         <v>13</v>
       </c>
-      <c r="J78" s="24">
-        <v>5</v>
+      <c r="J78" s="13">
+        <v>17</v>
       </c>
       <c r="K78" s="4">
         <v>3016</v>
       </c>
-      <c r="L78" s="24">
+      <c r="L78" s="13">
         <v>527</v>
       </c>
-      <c r="P78" s="20"/>
+      <c r="P78" s="11"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="19">
-        <v>18</v>
-      </c>
-      <c r="B79" s="19">
-        <v>23</v>
-      </c>
-      <c r="C79" s="19">
+      <c r="A79" s="10">
+        <v>9</v>
+      </c>
+      <c r="B79" s="10">
+        <v>15</v>
+      </c>
+      <c r="C79" s="10">
         <v>3017</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D79" s="10">
         <v>375</v>
       </c>
-      <c r="I79" s="27">
-        <v>5</v>
-      </c>
-      <c r="J79" s="24">
-        <v>9</v>
+      <c r="I79" s="15">
+        <v>14</v>
+      </c>
+      <c r="J79" s="13">
+        <v>22</v>
       </c>
       <c r="K79" s="4">
         <v>3022</v>
       </c>
-      <c r="L79" s="24">
+      <c r="L79" s="13">
         <v>523</v>
       </c>
-      <c r="P79" s="20"/>
+      <c r="P79" s="11"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="19">
-        <v>23</v>
-      </c>
-      <c r="B80" s="19">
+      <c r="A80" s="10">
+        <v>13</v>
+      </c>
+      <c r="B80" s="10">
         <v>16</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="10">
         <v>3018</v>
       </c>
-      <c r="D80" s="19">
-        <v>376</v>
-      </c>
-      <c r="I80" s="27">
+      <c r="D80" s="10">
+        <v>404</v>
+      </c>
+      <c r="I80" s="15">
         <v>13</v>
       </c>
-      <c r="J80" s="24">
-        <v>4</v>
+      <c r="J80" s="13">
+        <v>12</v>
       </c>
       <c r="K80" s="4">
         <v>3010</v>
       </c>
-      <c r="L80" s="24">
+      <c r="L80" s="13">
         <v>534</v>
       </c>
-      <c r="P80" s="20"/>
+      <c r="P80" s="11"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="19">
-        <v>21</v>
-      </c>
-      <c r="B81" s="19">
-        <v>12</v>
-      </c>
-      <c r="C81" s="19">
+      <c r="A81" s="10">
+        <v>17</v>
+      </c>
+      <c r="B81" s="10">
+        <v>6</v>
+      </c>
+      <c r="C81" s="10">
         <v>3020</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="10">
         <v>426</v>
       </c>
-      <c r="I81" s="27">
-        <v>3</v>
-      </c>
-      <c r="J81" s="24">
-        <v>6</v>
+      <c r="I81" s="15">
+        <v>16</v>
+      </c>
+      <c r="J81" s="13">
+        <v>14</v>
       </c>
       <c r="K81" s="4">
         <v>3021</v>
       </c>
-      <c r="L81" s="24">
+      <c r="L81" s="13">
         <v>527</v>
       </c>
-      <c r="P81" s="20"/>
+      <c r="P81" s="11"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="19">
-        <v>18</v>
-      </c>
-      <c r="B82" s="19">
-        <v>59</v>
-      </c>
-      <c r="C82" s="19">
+      <c r="A82" s="10">
+        <v>17</v>
+      </c>
+      <c r="B82" s="10">
+        <v>14</v>
+      </c>
+      <c r="C82" s="10">
         <v>3018</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="10">
         <v>373</v>
       </c>
-      <c r="I82" s="27">
-        <v>2</v>
-      </c>
-      <c r="J82" s="24">
-        <v>3</v>
+      <c r="I82" s="15">
+        <v>15</v>
+      </c>
+      <c r="J82" s="13">
+        <v>14</v>
       </c>
       <c r="K82" s="4">
         <v>3017</v>
       </c>
-      <c r="L82" s="24">
+      <c r="L82" s="13">
         <v>553</v>
       </c>
-      <c r="P82" s="20"/>
+      <c r="P82" s="11"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="19">
+      <c r="A83" s="10">
         <v>10</v>
       </c>
-      <c r="B83" s="19">
-        <v>14</v>
-      </c>
-      <c r="C83" s="19">
+      <c r="B83" s="10">
+        <v>14</v>
+      </c>
+      <c r="C83" s="10">
         <v>3018</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="10">
         <v>376</v>
       </c>
-      <c r="I83" s="27">
-        <v>10</v>
-      </c>
-      <c r="J83" s="24">
-        <v>7</v>
+      <c r="I83" s="15">
+        <v>18</v>
+      </c>
+      <c r="J83" s="13">
+        <v>12</v>
       </c>
       <c r="K83" s="4">
         <v>3009</v>
       </c>
-      <c r="L83" s="24">
+      <c r="L83" s="13">
         <v>536</v>
       </c>
-      <c r="P83" s="20"/>
+      <c r="P83" s="11"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="19">
+      <c r="A84" s="10">
         <v>16</v>
       </c>
-      <c r="B84" s="19">
-        <v>17</v>
-      </c>
-      <c r="C84" s="19">
+      <c r="B84" s="10">
+        <v>17</v>
+      </c>
+      <c r="C84" s="10">
         <v>3034</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="10">
         <v>364</v>
       </c>
-      <c r="I84" s="27">
-        <v>3</v>
-      </c>
-      <c r="J84" s="24">
-        <v>3</v>
+      <c r="I84" s="15">
+        <v>14</v>
+      </c>
+      <c r="J84" s="13">
+        <v>15</v>
       </c>
       <c r="K84" s="4">
         <v>3017</v>
       </c>
-      <c r="L84" s="24">
+      <c r="L84" s="13">
         <v>563</v>
       </c>
-      <c r="P84" s="20"/>
+      <c r="P84" s="11"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="19">
-        <v>17</v>
-      </c>
-      <c r="B85" s="19">
-        <v>17</v>
-      </c>
-      <c r="C85" s="19">
+      <c r="A85" s="10">
+        <v>9</v>
+      </c>
+      <c r="B85" s="10">
+        <v>17</v>
+      </c>
+      <c r="C85" s="10">
         <v>3026</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="10">
         <v>864</v>
       </c>
-      <c r="I85" s="27">
-        <v>3</v>
-      </c>
-      <c r="J85" s="24">
-        <v>4</v>
+      <c r="I85" s="15">
+        <v>15</v>
+      </c>
+      <c r="J85" s="13">
+        <v>14</v>
       </c>
       <c r="K85" s="4">
         <v>3014</v>
       </c>
-      <c r="L85" s="24">
+      <c r="L85" s="13">
         <v>551</v>
       </c>
-      <c r="P85" s="20"/>
+      <c r="P85" s="11"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="19">
+      <c r="A86" s="10">
         <v>19</v>
       </c>
-      <c r="B86" s="19">
-        <v>14</v>
-      </c>
-      <c r="C86" s="19">
+      <c r="B86" s="10">
+        <v>6</v>
+      </c>
+      <c r="C86" s="10">
         <v>3026</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="10">
         <v>426</v>
       </c>
-      <c r="I86" s="27">
-        <v>4</v>
-      </c>
-      <c r="J86" s="24">
-        <v>9</v>
+      <c r="I86" s="15">
+        <v>15</v>
+      </c>
+      <c r="J86" s="13">
+        <v>11</v>
       </c>
       <c r="K86" s="4">
         <v>3022</v>
       </c>
-      <c r="L86" s="24">
+      <c r="L86" s="13">
         <v>554</v>
       </c>
-      <c r="P86" s="20"/>
+      <c r="P86" s="11"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="19">
+      <c r="A87" s="10">
         <v>18</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B87" s="10">
         <v>16</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C87" s="10">
         <v>3027</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="10">
         <v>385</v>
       </c>
-      <c r="I87" s="27">
-        <v>9</v>
-      </c>
-      <c r="J87" s="24">
-        <v>2</v>
+      <c r="I87" s="15">
+        <v>15</v>
+      </c>
+      <c r="J87" s="13">
+        <v>16</v>
       </c>
       <c r="K87" s="4">
         <v>3013</v>
       </c>
-      <c r="L87" s="24">
+      <c r="L87" s="13">
         <v>528</v>
       </c>
-      <c r="P87" s="20"/>
+      <c r="P87" s="11"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="19">
-        <v>26</v>
-      </c>
-      <c r="B88" s="19">
+      <c r="A88" s="10">
+        <v>14</v>
+      </c>
+      <c r="B88" s="10">
         <v>16</v>
       </c>
-      <c r="C88" s="19">
+      <c r="C88" s="10">
         <v>3027</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D88" s="10">
         <v>386</v>
       </c>
-      <c r="I88" s="27">
-        <v>2</v>
-      </c>
-      <c r="J88" s="24">
-        <v>5</v>
+      <c r="I88" s="15">
+        <v>20</v>
+      </c>
+      <c r="J88" s="13">
+        <v>17</v>
       </c>
       <c r="K88" s="4">
         <v>3011</v>
       </c>
-      <c r="L88" s="24">
+      <c r="L88" s="13">
         <v>522</v>
       </c>
-      <c r="P88" s="20"/>
+      <c r="P88" s="11"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="19">
+      <c r="A89" s="10">
         <v>9</v>
       </c>
-      <c r="B89" s="19">
-        <v>26</v>
-      </c>
-      <c r="C89" s="19">
+      <c r="B89" s="10">
+        <v>17</v>
+      </c>
+      <c r="C89" s="10">
         <v>3026</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="10">
         <v>377</v>
       </c>
-      <c r="I89" s="27">
-        <v>3</v>
-      </c>
-      <c r="J89" s="24">
+      <c r="I89" s="15">
+        <v>12</v>
+      </c>
+      <c r="J89" s="13">
         <v>10</v>
       </c>
       <c r="K89" s="4">
         <v>3019</v>
       </c>
-      <c r="L89" s="24">
+      <c r="L89" s="13">
         <v>527</v>
       </c>
-      <c r="P89" s="20"/>
+      <c r="P89" s="11"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="19">
+      <c r="A90" s="10">
         <v>16</v>
       </c>
-      <c r="B90" s="19">
+      <c r="B90" s="10">
         <v>7</v>
       </c>
-      <c r="C90" s="19">
+      <c r="C90" s="10">
         <v>3025</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="10">
         <v>383</v>
       </c>
-      <c r="I90" s="27">
-        <v>11</v>
-      </c>
-      <c r="J90" s="24">
-        <v>2</v>
+      <c r="I90" s="15">
+        <v>15</v>
+      </c>
+      <c r="J90" s="13">
+        <v>20</v>
       </c>
       <c r="K90" s="4">
         <v>3006</v>
       </c>
-      <c r="L90" s="24">
+      <c r="L90" s="13">
         <v>525</v>
       </c>
-      <c r="P90" s="20"/>
+      <c r="P90" s="11"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="19">
-        <v>18</v>
-      </c>
-      <c r="B91" s="19">
-        <v>24</v>
-      </c>
-      <c r="C91" s="19">
+      <c r="A91" s="10">
+        <v>17</v>
+      </c>
+      <c r="B91" s="10">
+        <v>12</v>
+      </c>
+      <c r="C91" s="10">
         <v>3026</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D91" s="10">
         <v>364</v>
       </c>
-      <c r="I91" s="27">
-        <v>4</v>
-      </c>
-      <c r="J91" s="24">
-        <v>3</v>
+      <c r="I91" s="15">
+        <v>15</v>
+      </c>
+      <c r="J91" s="13">
+        <v>26</v>
       </c>
       <c r="K91" s="4">
         <v>3005</v>
       </c>
-      <c r="L91" s="24">
+      <c r="L91" s="13">
         <v>527</v>
       </c>
-      <c r="P91" s="20"/>
+      <c r="P91" s="11"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="19">
+      <c r="A92" s="10">
         <v>18</v>
       </c>
-      <c r="B92" s="19">
+      <c r="B92" s="10">
         <v>10</v>
       </c>
-      <c r="C92" s="19">
+      <c r="C92" s="10">
         <v>3028</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="10">
         <v>378</v>
       </c>
-      <c r="I92" s="27">
-        <v>3</v>
-      </c>
-      <c r="J92" s="24">
-        <v>4</v>
+      <c r="I92" s="15">
+        <v>18</v>
+      </c>
+      <c r="J92" s="13">
+        <v>18</v>
       </c>
       <c r="K92" s="4">
         <v>3019</v>
       </c>
-      <c r="L92" s="24">
+      <c r="L92" s="13">
         <v>538</v>
       </c>
-      <c r="P92" s="20"/>
+      <c r="P92" s="11"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="19">
-        <v>17</v>
-      </c>
-      <c r="B93" s="19">
-        <v>18</v>
-      </c>
-      <c r="C93" s="19">
+      <c r="A93" s="10">
+        <v>17</v>
+      </c>
+      <c r="B93" s="10">
+        <v>10</v>
+      </c>
+      <c r="C93" s="10">
         <v>3025</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="10">
         <v>380</v>
       </c>
-      <c r="I93" s="27">
-        <v>14</v>
-      </c>
-      <c r="J93" s="24">
-        <v>10</v>
+      <c r="I93" s="15">
+        <v>14</v>
+      </c>
+      <c r="J93" s="13">
+        <v>15</v>
       </c>
       <c r="K93" s="4">
         <v>3025</v>
       </c>
-      <c r="L93" s="24">
+      <c r="L93" s="13">
         <v>544</v>
       </c>
-      <c r="P93" s="20"/>
+      <c r="P93" s="11"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="19">
-        <v>17</v>
-      </c>
-      <c r="B94" s="19">
-        <v>17</v>
-      </c>
-      <c r="C94" s="19">
+      <c r="A94" s="10">
+        <v>17</v>
+      </c>
+      <c r="B94" s="10">
+        <v>17</v>
+      </c>
+      <c r="C94" s="10">
         <v>3028</v>
       </c>
-      <c r="D94" s="19">
-        <v>352</v>
-      </c>
-      <c r="I94" s="27">
-        <v>4</v>
-      </c>
-      <c r="J94" s="24">
-        <v>4</v>
+      <c r="D94" s="10">
+        <v>441</v>
+      </c>
+      <c r="I94" s="15">
+        <v>12</v>
+      </c>
+      <c r="J94" s="13">
+        <v>13</v>
       </c>
       <c r="K94" s="4">
         <v>3026</v>
       </c>
-      <c r="L94" s="24">
+      <c r="L94" s="13">
         <v>541</v>
       </c>
-      <c r="P94" s="20"/>
+      <c r="P94" s="11"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="19">
+      <c r="A95" s="10">
         <v>18</v>
       </c>
-      <c r="B95" s="19">
-        <v>22</v>
-      </c>
-      <c r="C95" s="19">
+      <c r="B95" s="10">
+        <v>13</v>
+      </c>
+      <c r="C95" s="10">
         <v>3026</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="10">
         <v>373</v>
       </c>
-      <c r="I95" s="27">
-        <v>8</v>
-      </c>
-      <c r="J95" s="24">
-        <v>2</v>
+      <c r="I95" s="15">
+        <v>15</v>
+      </c>
+      <c r="J95" s="13">
+        <v>19</v>
       </c>
       <c r="K95" s="4">
         <v>3028</v>
       </c>
-      <c r="L95" s="24">
+      <c r="L95" s="13">
         <v>555</v>
       </c>
-      <c r="P95" s="20"/>
+      <c r="P95" s="11"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="19">
-        <v>17</v>
-      </c>
-      <c r="B96" s="19">
-        <v>17</v>
-      </c>
-      <c r="C96" s="19">
+      <c r="A96" s="10">
+        <v>17</v>
+      </c>
+      <c r="B96" s="10">
+        <v>17</v>
+      </c>
+      <c r="C96" s="10">
         <v>3026</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="10">
         <v>391</v>
       </c>
-      <c r="I96" s="27">
-        <v>6</v>
-      </c>
-      <c r="J96" s="24">
-        <v>10</v>
+      <c r="I96" s="15">
+        <v>23</v>
+      </c>
+      <c r="J96" s="13">
+        <v>15</v>
       </c>
       <c r="K96" s="4">
         <v>3018</v>
       </c>
-      <c r="L96" s="24">
+      <c r="L96" s="13">
         <v>529</v>
       </c>
-      <c r="P96" s="20"/>
+      <c r="P96" s="11"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="19">
-        <v>17</v>
-      </c>
-      <c r="B97" s="19">
+      <c r="A97" s="10">
+        <v>8</v>
+      </c>
+      <c r="B97" s="10">
         <v>10</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C97" s="10">
         <v>3024</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="10">
         <v>392</v>
       </c>
-      <c r="I97" s="27">
-        <v>3</v>
-      </c>
-      <c r="J97" s="24">
-        <v>5</v>
+      <c r="I97" s="15">
+        <v>12</v>
+      </c>
+      <c r="J97" s="13">
+        <v>13</v>
       </c>
       <c r="K97" s="4">
         <v>3031</v>
       </c>
-      <c r="L97" s="24">
+      <c r="L97" s="13">
         <v>541</v>
       </c>
-      <c r="P97" s="20"/>
+      <c r="P97" s="11"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="19">
-        <v>28</v>
-      </c>
-      <c r="B98" s="19">
-        <v>16</v>
-      </c>
-      <c r="C98" s="19">
+      <c r="A98" s="10">
+        <v>15</v>
+      </c>
+      <c r="B98" s="10">
+        <v>12</v>
+      </c>
+      <c r="C98" s="10">
         <v>3026</v>
       </c>
-      <c r="D98" s="19">
-        <v>361</v>
-      </c>
-      <c r="I98" s="27">
-        <v>11</v>
-      </c>
-      <c r="J98" s="24">
-        <v>3</v>
+      <c r="D98" s="10">
+        <v>559</v>
+      </c>
+      <c r="I98" s="15">
+        <v>15</v>
+      </c>
+      <c r="J98" s="13">
+        <v>13</v>
       </c>
       <c r="K98" s="4">
         <v>3023</v>
       </c>
-      <c r="L98" s="24">
+      <c r="L98" s="13">
         <v>527</v>
       </c>
-      <c r="P98" s="20"/>
+      <c r="P98" s="11"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="19">
+      <c r="A99" s="10">
         <v>10</v>
       </c>
-      <c r="B99" s="19">
+      <c r="B99" s="10">
+        <v>17</v>
+      </c>
+      <c r="C99" s="10">
+        <v>3029</v>
+      </c>
+      <c r="D99" s="10">
+        <v>397</v>
+      </c>
+      <c r="I99" s="15">
         <v>22</v>
       </c>
-      <c r="C99" s="19">
-        <v>3029</v>
-      </c>
-      <c r="D99" s="19">
-        <v>359</v>
-      </c>
-      <c r="I99" s="27">
-        <v>3</v>
-      </c>
-      <c r="J99" s="24">
-        <v>12</v>
+      <c r="J99" s="13">
+        <v>14</v>
       </c>
       <c r="K99" s="4">
         <v>3026</v>
       </c>
-      <c r="L99" s="24">
+      <c r="L99" s="13">
         <v>530</v>
       </c>
-      <c r="P99" s="20"/>
+      <c r="P99" s="11"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="19">
-        <v>17</v>
-      </c>
-      <c r="B100" s="19">
+      <c r="A100" s="10">
+        <v>17</v>
+      </c>
+      <c r="B100" s="10">
         <v>12</v>
       </c>
-      <c r="C100" s="19">
+      <c r="C100" s="10">
         <v>3023</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="10">
         <v>376</v>
       </c>
-      <c r="I100" s="27">
-        <v>2</v>
-      </c>
-      <c r="J100" s="24">
-        <v>4</v>
+      <c r="I100" s="15">
+        <v>15</v>
+      </c>
+      <c r="J100" s="13">
+        <v>16</v>
       </c>
       <c r="K100" s="4">
         <v>3020</v>
       </c>
-      <c r="L100" s="24">
+      <c r="L100" s="13">
         <v>505</v>
       </c>
-      <c r="P100" s="20"/>
+      <c r="P100" s="11"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="19">
+      <c r="A101" s="10">
         <v>18</v>
       </c>
-      <c r="B101" s="19">
-        <v>24</v>
-      </c>
-      <c r="C101" s="19">
+      <c r="B101" s="10">
+        <v>11</v>
+      </c>
+      <c r="C101" s="10">
         <v>3026</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D101" s="10">
         <v>398</v>
       </c>
-      <c r="I101" s="27">
-        <v>2</v>
-      </c>
-      <c r="J101" s="24">
-        <v>2</v>
+      <c r="I101" s="15">
+        <v>25</v>
+      </c>
+      <c r="J101" s="13">
+        <v>46</v>
       </c>
       <c r="K101" s="4">
         <v>3026</v>
       </c>
-      <c r="L101" s="24">
+      <c r="L101" s="13">
         <v>522</v>
       </c>
-      <c r="P101" s="20"/>
+      <c r="P101" s="11"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="19">
+      <c r="A102" s="10">
         <v>16</v>
       </c>
-      <c r="B102" s="19">
-        <v>22</v>
-      </c>
-      <c r="C102" s="19">
+      <c r="B102" s="10">
+        <v>6</v>
+      </c>
+      <c r="C102" s="10">
         <v>3025</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="10">
         <v>384</v>
       </c>
-      <c r="I102" s="27">
-        <v>10</v>
-      </c>
-      <c r="J102" s="24">
-        <v>8</v>
+      <c r="I102" s="15">
+        <v>12</v>
+      </c>
+      <c r="J102" s="13">
+        <v>16</v>
       </c>
       <c r="K102" s="4">
         <v>3013</v>
       </c>
-      <c r="L102" s="24">
+      <c r="L102" s="13">
         <v>493</v>
       </c>
-      <c r="P102" s="20"/>
+      <c r="P102" s="11"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="19">
-        <v>20</v>
-      </c>
-      <c r="B103" s="19">
-        <v>25</v>
-      </c>
-      <c r="C103" s="19">
+      <c r="A103" s="10">
+        <v>18</v>
+      </c>
+      <c r="B103" s="10">
+        <v>18</v>
+      </c>
+      <c r="C103" s="10">
         <v>3022</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="10">
         <v>384</v>
       </c>
-      <c r="I103" s="27">
-        <v>3</v>
-      </c>
-      <c r="J103" s="24">
-        <v>3</v>
+      <c r="I103" s="15">
+        <v>21</v>
+      </c>
+      <c r="J103" s="13">
+        <v>17</v>
       </c>
       <c r="K103" s="4">
         <v>3029</v>
       </c>
-      <c r="L103" s="24">
+      <c r="L103" s="13">
         <v>522</v>
       </c>
-      <c r="P103" s="20"/>
+      <c r="P103" s="11"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="29">
+      <c r="A104" s="17">
         <f>AVERAGEA(A4:A103)</f>
-        <v>17.510000000000002</v>
-      </c>
-      <c r="B104" s="29">
+        <v>14.59</v>
+      </c>
+      <c r="B104" s="17">
         <f t="shared" ref="B104:D104" si="1">AVERAGEA(B4:B103)</f>
-        <v>17.52</v>
-      </c>
-      <c r="C104" s="29">
+        <v>13.48</v>
+      </c>
+      <c r="C104" s="17">
         <f t="shared" si="1"/>
         <v>3023.61</v>
       </c>
-      <c r="D104" s="29">
+      <c r="D104" s="17">
         <f t="shared" si="1"/>
-        <v>398.75</v>
-      </c>
-      <c r="E104" s="29" t="e">
+        <v>402.98</v>
+      </c>
+      <c r="E104" s="17" t="e">
         <f t="shared" ref="E104" si="2">AVERAGEA(E4:E103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F104" s="29" t="e">
+      <c r="F104" s="17" t="e">
         <f t="shared" ref="F104:G104" si="3">AVERAGEA(F4:F103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G104" s="29" t="e">
+      <c r="G104" s="17" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H104" s="29" t="e">
+      <c r="H104" s="17" t="e">
         <f t="shared" ref="H104" si="4">AVERAGEA(H4:H103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I104" s="29">
+      <c r="I104" s="17">
         <f t="shared" ref="I104:J104" si="5">AVERAGEA(I4:I103)</f>
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="J104" s="29">
+        <v>17.21</v>
+      </c>
+      <c r="J104" s="17">
         <f t="shared" si="5"/>
-        <v>7.23</v>
-      </c>
-      <c r="K104" s="29">
+        <v>15.14</v>
+      </c>
+      <c r="K104" s="17">
         <f t="shared" ref="K104" si="6">AVERAGEA(K4:K103)</f>
         <v>3018.89</v>
       </c>
-      <c r="L104" s="29">
+      <c r="L104" s="17">
         <f t="shared" ref="L104:M104" si="7">AVERAGEA(L4:L103)</f>
-        <v>540.32000000000005</v>
-      </c>
-      <c r="M104" s="29" t="e">
+        <v>534.69000000000005</v>
+      </c>
+      <c r="M104" s="17" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N104" s="29" t="e">
+      <c r="N104" s="17" t="e">
         <f t="shared" ref="N104" si="8">AVERAGEA(N4:N103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O104" s="29" t="e">
+      <c r="O104" s="17" t="e">
         <f t="shared" ref="O104:P104" si="9">AVERAGEA(O4:O103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P104" s="29" t="e">
+      <c r="P104" s="17" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="W6:Z6"/>
     <mergeCell ref="S5:Z5"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Projekt inż.xlsx
+++ b/Projekt inż.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="21">
   <si>
     <t>FLUTTER</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>Różnice</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Flutter</t>
+  </si>
+  <si>
+    <t>Test animacji</t>
+  </si>
+  <si>
+    <t>Test dostępu do bazy danych</t>
+  </si>
+  <si>
+    <t>Test dostępu do pliku systemowego</t>
+  </si>
+  <si>
+    <t>Test pobrania danych z API i wyświetlenie JSON</t>
   </si>
 </sst>
 </file>
@@ -204,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -349,6 +367,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -361,7 +436,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,9 +484,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -421,7 +493,16 @@
     <xf numFmtId="2" fontId="7" fillId="7" borderId="8" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="8" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -445,7 +526,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
@@ -464,6 +551,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,6 +585,3962 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$D$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test dostępu do pliku systemowego</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8660-4F73-93D3-798D56C69514}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$C$112:$C$113</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flutter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$D$112:$D$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8660-4F73-93D3-798D56C69514}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1530879423"/>
+        <c:axId val="1530877343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1530879423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530877343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1530877343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530879423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$E$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test dostępu do bazy danych</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4FEE-44F7-9C8F-6158C1788C27}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$C$112:$C$113</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flutter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$E$112:$E$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4FEE-44F7-9C8F-6158C1788C27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1530879423"/>
+        <c:axId val="1530877343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1530879423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530877343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1530877343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530879423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$F$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test animacji</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FE80-43B1-9A0E-4A0D890707D3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$C$112:$C$113</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flutter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$F$112:$F$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3007.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3006.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE80-43B1-9A0E-4A0D890707D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1530879423"/>
+        <c:axId val="1530877343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1530879423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530877343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1530877343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3010"/>
+          <c:min val="3000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530879423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$G$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test pobrania danych z API i wyświetlenie JSON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1850-45F9-B8F4-15FF4F8D029C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$C$112:$C$113</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flutter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$G$112:$G$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>469.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>623.94000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1850-45F9-B8F4-15FF4F8D029C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1530879423"/>
+        <c:axId val="1530877343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1530879423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530877343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1530877343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530879423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,16 +4829,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -865,11 +4917,11 @@
         <v>25</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1173,10 +5225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z104"/>
+  <dimension ref="A1:Y113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="R123" sqref="R123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,55 +5236,55 @@
     <col min="1" max="16" width="10.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="35" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-    </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +5334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>18</v>
       </c>
@@ -1295,8 +5347,20 @@
       <c r="D4" s="10">
         <v>547</v>
       </c>
+      <c r="E4" s="10">
+        <v>26</v>
+      </c>
+      <c r="F4" s="10">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3003</v>
+      </c>
+      <c r="H4" s="10">
+        <v>528</v>
+      </c>
       <c r="I4" s="15">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="J4" s="13">
         <v>14</v>
@@ -1307,9 +5371,20 @@
       <c r="L4" s="13">
         <v>512</v>
       </c>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M4" s="10">
+        <v>78</v>
+      </c>
+      <c r="N4" s="10">
+        <v>71</v>
+      </c>
+      <c r="O4" s="10">
+        <v>3020</v>
+      </c>
+      <c r="P4" s="11">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>17</v>
       </c>
@@ -1322,11 +5397,23 @@
       <c r="D5" s="10">
         <v>386</v>
       </c>
+      <c r="E5" s="10">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3001</v>
+      </c>
+      <c r="H5" s="10">
+        <v>533</v>
+      </c>
       <c r="I5" s="15">
         <v>15</v>
       </c>
       <c r="J5" s="13">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="K5" s="4">
         <v>3018</v>
@@ -1334,19 +5421,20 @@
       <c r="L5" s="13">
         <v>542</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="S5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M5" s="10">
+        <v>67</v>
+      </c>
+      <c r="N5" s="10">
+        <v>56</v>
+      </c>
+      <c r="O5" s="10">
+        <v>3011</v>
+      </c>
+      <c r="P5" s="11">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>8</v>
       </c>
@@ -1359,6 +5447,18 @@
       <c r="D6" s="10">
         <v>395</v>
       </c>
+      <c r="E6" s="10">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3007</v>
+      </c>
+      <c r="H6" s="10">
+        <v>533</v>
+      </c>
       <c r="I6" s="15">
         <v>16</v>
       </c>
@@ -1371,21 +5471,20 @@
       <c r="L6" s="13">
         <v>582</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="S6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-    </row>
-    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="M6" s="10">
+        <v>70</v>
+      </c>
+      <c r="N6" s="10">
+        <v>67</v>
+      </c>
+      <c r="O6" s="10">
+        <v>3020</v>
+      </c>
+      <c r="P6" s="11">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>17</v>
       </c>
@@ -1398,6 +5497,18 @@
       <c r="D7" s="10">
         <v>397</v>
       </c>
+      <c r="E7" s="10">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10">
+        <v>33</v>
+      </c>
+      <c r="G7" s="10">
+        <v>3012</v>
+      </c>
+      <c r="H7" s="10">
+        <v>572</v>
+      </c>
       <c r="I7" s="15">
         <v>17</v>
       </c>
@@ -1410,33 +5521,20 @@
       <c r="L7" s="13">
         <v>572</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="S7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="X7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M7" s="10">
+        <v>76</v>
+      </c>
+      <c r="N7" s="10">
+        <v>50</v>
+      </c>
+      <c r="O7" s="10">
+        <v>3016</v>
+      </c>
+      <c r="P7" s="11">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>16</v>
       </c>
@@ -1449,6 +5547,18 @@
       <c r="D8" s="10">
         <v>395</v>
       </c>
+      <c r="E8" s="10">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10">
+        <v>3013</v>
+      </c>
+      <c r="H8" s="10">
+        <v>549</v>
+      </c>
       <c r="I8" s="15">
         <v>15</v>
       </c>
@@ -1461,29 +5571,20 @@
       <c r="L8" s="13">
         <v>561</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="S8" s="20">
-        <f>I104-A104</f>
-        <v>2.620000000000001</v>
-      </c>
-      <c r="T8" s="20">
-        <f>J104-B104</f>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="U8" s="19">
-        <f t="shared" ref="T8:U8" si="0">C104-K104</f>
-        <v>4.7200000000002547</v>
-      </c>
-      <c r="V8" s="20">
-        <f>L104-D104</f>
-        <v>131.71000000000004</v>
-      </c>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M8" s="10">
+        <v>69</v>
+      </c>
+      <c r="N8" s="10">
+        <v>44</v>
+      </c>
+      <c r="O8" s="10">
+        <v>3010</v>
+      </c>
+      <c r="P8" s="11">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>12</v>
       </c>
@@ -1496,8 +5597,20 @@
       <c r="D9" s="10">
         <v>372</v>
       </c>
+      <c r="E9" s="10">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10">
+        <v>19</v>
+      </c>
+      <c r="G9" s="10">
+        <v>3016</v>
+      </c>
+      <c r="H9" s="10">
+        <v>524</v>
+      </c>
       <c r="I9" s="15">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J9" s="13">
         <v>18</v>
@@ -1508,9 +5621,20 @@
       <c r="L9" s="13">
         <v>530</v>
       </c>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M9" s="10">
+        <v>63</v>
+      </c>
+      <c r="N9" s="10">
+        <v>44</v>
+      </c>
+      <c r="O9" s="10">
+        <v>3005</v>
+      </c>
+      <c r="P9" s="11">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>11</v>
       </c>
@@ -1523,6 +5647,18 @@
       <c r="D10" s="10">
         <v>372</v>
       </c>
+      <c r="E10" s="10">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3009</v>
+      </c>
+      <c r="H10" s="10">
+        <v>559</v>
+      </c>
       <c r="I10" s="15">
         <v>17</v>
       </c>
@@ -1535,9 +5671,20 @@
       <c r="L10" s="13">
         <v>583</v>
       </c>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M10" s="10">
+        <v>67</v>
+      </c>
+      <c r="N10" s="10">
+        <v>42</v>
+      </c>
+      <c r="O10" s="10">
+        <v>3027</v>
+      </c>
+      <c r="P10" s="11">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>6</v>
       </c>
@@ -1550,8 +5697,20 @@
       <c r="D11" s="10">
         <v>382</v>
       </c>
+      <c r="E11" s="10">
+        <v>22</v>
+      </c>
+      <c r="F11" s="10">
+        <v>23</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3019</v>
+      </c>
+      <c r="H11" s="10">
+        <v>555</v>
+      </c>
       <c r="I11" s="15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J11" s="13">
         <v>14</v>
@@ -1562,9 +5721,20 @@
       <c r="L11" s="13">
         <v>551</v>
       </c>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M11" s="10">
+        <v>53</v>
+      </c>
+      <c r="N11" s="10">
+        <v>24</v>
+      </c>
+      <c r="O11" s="10">
+        <v>3008</v>
+      </c>
+      <c r="P11" s="11">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1577,6 +5747,18 @@
       <c r="D12" s="10">
         <v>371</v>
       </c>
+      <c r="E12" s="10">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10">
+        <v>21</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3007</v>
+      </c>
+      <c r="H12" s="10">
+        <v>578</v>
+      </c>
       <c r="I12" s="15">
         <v>12</v>
       </c>
@@ -1589,9 +5771,20 @@
       <c r="L12" s="13">
         <v>538</v>
       </c>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M12" s="10">
+        <v>58</v>
+      </c>
+      <c r="N12" s="10">
+        <v>48</v>
+      </c>
+      <c r="O12" s="10">
+        <v>3015</v>
+      </c>
+      <c r="P12" s="11">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1604,6 +5797,18 @@
       <c r="D13" s="10">
         <v>392</v>
       </c>
+      <c r="E13" s="10">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10">
+        <v>14</v>
+      </c>
+      <c r="G13" s="10">
+        <v>3009</v>
+      </c>
+      <c r="H13" s="10">
+        <v>544</v>
+      </c>
       <c r="I13" s="15">
         <v>14</v>
       </c>
@@ -1616,9 +5821,20 @@
       <c r="L13" s="13">
         <v>523</v>
       </c>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M13" s="10">
+        <v>61</v>
+      </c>
+      <c r="N13" s="10">
+        <v>58</v>
+      </c>
+      <c r="O13" s="10">
+        <v>3015</v>
+      </c>
+      <c r="P13" s="11">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>17</v>
       </c>
@@ -1631,8 +5847,20 @@
       <c r="D14" s="10">
         <v>379</v>
       </c>
+      <c r="E14" s="10">
+        <v>22</v>
+      </c>
+      <c r="F14" s="10">
+        <v>10</v>
+      </c>
+      <c r="G14" s="10">
+        <v>3019</v>
+      </c>
+      <c r="H14" s="10">
+        <v>578</v>
+      </c>
       <c r="I14" s="15">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J14" s="13">
         <v>12</v>
@@ -1643,9 +5871,20 @@
       <c r="L14" s="13">
         <v>521</v>
       </c>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M14" s="10">
+        <v>75</v>
+      </c>
+      <c r="N14" s="10">
+        <v>40</v>
+      </c>
+      <c r="O14" s="10">
+        <v>3026</v>
+      </c>
+      <c r="P14" s="11">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>7</v>
       </c>
@@ -1658,11 +5897,23 @@
       <c r="D15" s="10">
         <v>368</v>
       </c>
+      <c r="E15" s="10">
+        <v>19</v>
+      </c>
+      <c r="F15" s="10">
+        <v>25</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3004</v>
+      </c>
+      <c r="H15" s="10">
+        <v>682</v>
+      </c>
       <c r="I15" s="15">
         <v>16</v>
       </c>
       <c r="J15" s="13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K15" s="4">
         <v>3035</v>
@@ -1670,9 +5921,22 @@
       <c r="L15" s="13">
         <v>536</v>
       </c>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M15" s="10">
+        <v>44</v>
+      </c>
+      <c r="N15" s="10">
+        <v>41</v>
+      </c>
+      <c r="O15" s="10">
+        <v>3022</v>
+      </c>
+      <c r="P15" s="11">
+        <v>636</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="22"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>19</v>
       </c>
@@ -1685,6 +5949,18 @@
       <c r="D16" s="10">
         <v>384</v>
       </c>
+      <c r="E16" s="10">
+        <v>14</v>
+      </c>
+      <c r="F16" s="10">
+        <v>29</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3011</v>
+      </c>
+      <c r="H16" s="10">
+        <v>497</v>
+      </c>
       <c r="I16" s="15">
         <v>14</v>
       </c>
@@ -1697,9 +5973,22 @@
       <c r="L16" s="13">
         <v>536</v>
       </c>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M16" s="10">
+        <v>46</v>
+      </c>
+      <c r="N16" s="10">
+        <v>48</v>
+      </c>
+      <c r="O16" s="10">
+        <v>3000</v>
+      </c>
+      <c r="P16" s="11">
+        <v>635</v>
+      </c>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="22"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>9</v>
       </c>
@@ -1712,6 +6001,18 @@
       <c r="D17" s="10">
         <v>446</v>
       </c>
+      <c r="E17" s="10">
+        <v>29</v>
+      </c>
+      <c r="F17" s="10">
+        <v>17</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3016</v>
+      </c>
+      <c r="H17" s="10">
+        <v>468</v>
+      </c>
       <c r="I17" s="15">
         <v>17</v>
       </c>
@@ -1724,9 +6025,22 @@
       <c r="L17" s="13">
         <v>518</v>
       </c>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M17" s="10">
+        <v>54</v>
+      </c>
+      <c r="N17" s="10">
+        <v>42</v>
+      </c>
+      <c r="O17" s="10">
+        <v>2997</v>
+      </c>
+      <c r="P17" s="11">
+        <v>681</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="22"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>19</v>
       </c>
@@ -1739,6 +6053,18 @@
       <c r="D18" s="10">
         <v>413</v>
       </c>
+      <c r="E18" s="10">
+        <v>22</v>
+      </c>
+      <c r="F18" s="10">
+        <v>16</v>
+      </c>
+      <c r="G18" s="10">
+        <v>3017</v>
+      </c>
+      <c r="H18" s="10">
+        <v>483</v>
+      </c>
       <c r="I18" s="15">
         <v>17</v>
       </c>
@@ -1751,9 +6077,22 @@
       <c r="L18" s="13">
         <v>519</v>
       </c>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M18" s="10">
+        <v>58</v>
+      </c>
+      <c r="N18" s="10">
+        <v>53</v>
+      </c>
+      <c r="O18" s="10">
+        <v>2999</v>
+      </c>
+      <c r="P18" s="11">
+        <v>725</v>
+      </c>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="22"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>19</v>
       </c>
@@ -1766,8 +6105,20 @@
       <c r="D19" s="10">
         <v>879</v>
       </c>
+      <c r="E19" s="10">
+        <v>16</v>
+      </c>
+      <c r="F19" s="10">
+        <v>15</v>
+      </c>
+      <c r="G19" s="10">
+        <v>3017</v>
+      </c>
+      <c r="H19" s="10">
+        <v>461</v>
+      </c>
       <c r="I19" s="15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J19" s="13">
         <v>17</v>
@@ -1778,9 +6129,22 @@
       <c r="L19" s="13">
         <v>513</v>
       </c>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M19" s="10">
+        <v>61</v>
+      </c>
+      <c r="N19" s="10">
+        <v>44</v>
+      </c>
+      <c r="O19" s="10">
+        <v>2996</v>
+      </c>
+      <c r="P19" s="11">
+        <v>621</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="22"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>15</v>
       </c>
@@ -1793,6 +6157,18 @@
       <c r="D20" s="10">
         <v>415</v>
       </c>
+      <c r="E20" s="10">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10">
+        <v>12</v>
+      </c>
+      <c r="G20" s="10">
+        <v>3011</v>
+      </c>
+      <c r="H20" s="10">
+        <v>474</v>
+      </c>
       <c r="I20" s="15">
         <v>24</v>
       </c>
@@ -1805,9 +6181,22 @@
       <c r="L20" s="13">
         <v>556</v>
       </c>
-      <c r="P20" s="11"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M20" s="10">
+        <v>49</v>
+      </c>
+      <c r="N20" s="10">
+        <v>43</v>
+      </c>
+      <c r="O20" s="10">
+        <v>2991</v>
+      </c>
+      <c r="P20" s="11">
+        <v>649</v>
+      </c>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="22"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -1820,8 +6209,20 @@
       <c r="D21" s="10">
         <v>406</v>
       </c>
+      <c r="E21" s="10">
+        <v>33</v>
+      </c>
+      <c r="F21" s="10">
+        <v>17</v>
+      </c>
+      <c r="G21" s="10">
+        <v>3000</v>
+      </c>
+      <c r="H21" s="10">
+        <v>469</v>
+      </c>
       <c r="I21" s="15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J21" s="13">
         <v>16</v>
@@ -1832,9 +6233,22 @@
       <c r="L21" s="13">
         <v>505</v>
       </c>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M21" s="10">
+        <v>20</v>
+      </c>
+      <c r="N21" s="10">
+        <v>37</v>
+      </c>
+      <c r="O21" s="10">
+        <v>3008</v>
+      </c>
+      <c r="P21" s="11">
+        <v>647</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="22"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>10</v>
       </c>
@@ -1847,6 +6261,18 @@
       <c r="D22" s="10">
         <v>407</v>
       </c>
+      <c r="E22" s="10">
+        <v>27</v>
+      </c>
+      <c r="F22" s="10">
+        <v>16</v>
+      </c>
+      <c r="G22" s="10">
+        <v>3011</v>
+      </c>
+      <c r="H22" s="10">
+        <v>480</v>
+      </c>
       <c r="I22" s="15">
         <v>22</v>
       </c>
@@ -1859,9 +6285,22 @@
       <c r="L22" s="13">
         <v>512</v>
       </c>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M22" s="10">
+        <v>55</v>
+      </c>
+      <c r="N22" s="10">
+        <v>31</v>
+      </c>
+      <c r="O22" s="10">
+        <v>2998</v>
+      </c>
+      <c r="P22" s="11">
+        <v>615</v>
+      </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="22"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>18</v>
       </c>
@@ -1874,8 +6313,20 @@
       <c r="D23" s="10">
         <v>492</v>
       </c>
+      <c r="E23" s="10">
+        <v>18</v>
+      </c>
+      <c r="F23" s="10">
+        <v>31</v>
+      </c>
+      <c r="G23" s="10">
+        <v>3008</v>
+      </c>
+      <c r="H23" s="10">
+        <v>465</v>
+      </c>
       <c r="I23" s="15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J23" s="13">
         <v>12</v>
@@ -1886,9 +6337,22 @@
       <c r="L23" s="13">
         <v>506</v>
       </c>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M23" s="10">
+        <v>56</v>
+      </c>
+      <c r="N23" s="10">
+        <v>53</v>
+      </c>
+      <c r="O23" s="10">
+        <v>3005</v>
+      </c>
+      <c r="P23" s="11">
+        <v>639</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="22"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>17</v>
       </c>
@@ -1901,6 +6365,18 @@
       <c r="D24" s="10">
         <v>407</v>
       </c>
+      <c r="E24" s="10">
+        <v>18</v>
+      </c>
+      <c r="F24" s="10">
+        <v>20</v>
+      </c>
+      <c r="G24" s="10">
+        <v>3014</v>
+      </c>
+      <c r="H24" s="10">
+        <v>441</v>
+      </c>
       <c r="I24" s="15">
         <v>14</v>
       </c>
@@ -1913,9 +6389,22 @@
       <c r="L24" s="13">
         <v>499</v>
       </c>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M24" s="10">
+        <v>62</v>
+      </c>
+      <c r="N24" s="10">
+        <v>48</v>
+      </c>
+      <c r="O24" s="10">
+        <v>3013</v>
+      </c>
+      <c r="P24" s="11">
+        <v>620</v>
+      </c>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="22"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>18</v>
       </c>
@@ -1928,6 +6417,18 @@
       <c r="D25" s="10">
         <v>411</v>
       </c>
+      <c r="E25" s="10">
+        <v>15</v>
+      </c>
+      <c r="F25" s="10">
+        <v>19</v>
+      </c>
+      <c r="G25" s="10">
+        <v>3015</v>
+      </c>
+      <c r="H25" s="10">
+        <v>462</v>
+      </c>
       <c r="I25" s="15">
         <v>10</v>
       </c>
@@ -1940,9 +6441,22 @@
       <c r="L25" s="13">
         <v>537</v>
       </c>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M25" s="10">
+        <v>53</v>
+      </c>
+      <c r="N25" s="10">
+        <v>36</v>
+      </c>
+      <c r="O25" s="10">
+        <v>3008</v>
+      </c>
+      <c r="P25" s="11">
+        <v>638</v>
+      </c>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="22"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>18</v>
       </c>
@@ -1955,6 +6469,18 @@
       <c r="D26" s="10">
         <v>372</v>
       </c>
+      <c r="E26" s="10">
+        <v>23</v>
+      </c>
+      <c r="F26" s="10">
+        <v>16</v>
+      </c>
+      <c r="G26" s="10">
+        <v>3005</v>
+      </c>
+      <c r="H26" s="10">
+        <v>458</v>
+      </c>
       <c r="I26" s="15">
         <v>14</v>
       </c>
@@ -1967,9 +6493,22 @@
       <c r="L26" s="13">
         <v>525</v>
       </c>
-      <c r="P26" s="11"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M26" s="10">
+        <v>44</v>
+      </c>
+      <c r="N26" s="10">
+        <v>25</v>
+      </c>
+      <c r="O26" s="10">
+        <v>3012</v>
+      </c>
+      <c r="P26" s="11">
+        <v>561</v>
+      </c>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="22"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>10</v>
       </c>
@@ -1982,6 +6521,18 @@
       <c r="D27" s="10">
         <v>372</v>
       </c>
+      <c r="E27" s="10">
+        <v>19</v>
+      </c>
+      <c r="F27" s="10">
+        <v>20</v>
+      </c>
+      <c r="G27" s="10">
+        <v>3010</v>
+      </c>
+      <c r="H27" s="10">
+        <v>464</v>
+      </c>
       <c r="I27" s="15">
         <v>15</v>
       </c>
@@ -1994,9 +6545,22 @@
       <c r="L27" s="13">
         <v>524</v>
       </c>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M27" s="10">
+        <v>16</v>
+      </c>
+      <c r="N27" s="10">
+        <v>21</v>
+      </c>
+      <c r="O27" s="10">
+        <v>3009</v>
+      </c>
+      <c r="P27" s="11">
+        <v>612</v>
+      </c>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="22"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>8</v>
       </c>
@@ -2009,6 +6573,18 @@
       <c r="D28" s="10">
         <v>380</v>
       </c>
+      <c r="E28" s="10">
+        <v>17</v>
+      </c>
+      <c r="F28" s="10">
+        <v>22</v>
+      </c>
+      <c r="G28" s="10">
+        <v>3009</v>
+      </c>
+      <c r="H28" s="10">
+        <v>447</v>
+      </c>
       <c r="I28" s="15">
         <v>13</v>
       </c>
@@ -2021,9 +6597,22 @@
       <c r="L28" s="13">
         <v>521</v>
       </c>
-      <c r="P28" s="11"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M28" s="10">
+        <v>63</v>
+      </c>
+      <c r="N28" s="10">
+        <v>38</v>
+      </c>
+      <c r="O28" s="10">
+        <v>3010</v>
+      </c>
+      <c r="P28" s="11">
+        <v>608</v>
+      </c>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="22"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>18</v>
       </c>
@@ -2036,6 +6625,18 @@
       <c r="D29" s="10">
         <v>364</v>
       </c>
+      <c r="E29" s="10">
+        <v>13</v>
+      </c>
+      <c r="F29" s="10">
+        <v>19</v>
+      </c>
+      <c r="G29" s="10">
+        <v>3004</v>
+      </c>
+      <c r="H29" s="10">
+        <v>504</v>
+      </c>
       <c r="I29" s="15">
         <v>14</v>
       </c>
@@ -2048,9 +6649,22 @@
       <c r="L29" s="13">
         <v>543</v>
       </c>
-      <c r="P29" s="11"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M29" s="10">
+        <v>55</v>
+      </c>
+      <c r="N29" s="10">
+        <v>51</v>
+      </c>
+      <c r="O29" s="10">
+        <v>2995</v>
+      </c>
+      <c r="P29" s="11">
+        <v>694</v>
+      </c>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="22"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>18</v>
       </c>
@@ -2063,8 +6677,20 @@
       <c r="D30" s="10">
         <v>406</v>
       </c>
+      <c r="E30" s="10">
+        <v>15</v>
+      </c>
+      <c r="F30" s="10">
+        <v>19</v>
+      </c>
+      <c r="G30" s="10">
+        <v>3015</v>
+      </c>
+      <c r="H30" s="10">
+        <v>492</v>
+      </c>
       <c r="I30" s="15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J30" s="13">
         <v>13</v>
@@ -2075,9 +6701,22 @@
       <c r="L30" s="13">
         <v>527</v>
       </c>
-      <c r="P30" s="11"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M30" s="10">
+        <v>16</v>
+      </c>
+      <c r="N30" s="10">
+        <v>46</v>
+      </c>
+      <c r="O30" s="10">
+        <v>2996</v>
+      </c>
+      <c r="P30" s="11">
+        <v>614</v>
+      </c>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="22"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>17</v>
       </c>
@@ -2090,6 +6729,18 @@
       <c r="D31" s="10">
         <v>366</v>
       </c>
+      <c r="E31" s="10">
+        <v>26</v>
+      </c>
+      <c r="F31" s="10">
+        <v>20</v>
+      </c>
+      <c r="G31" s="10">
+        <v>3020</v>
+      </c>
+      <c r="H31" s="10">
+        <v>455</v>
+      </c>
       <c r="I31" s="15">
         <v>15</v>
       </c>
@@ -2102,9 +6753,22 @@
       <c r="L31" s="13">
         <v>504</v>
       </c>
-      <c r="P31" s="11"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M31" s="10">
+        <v>53</v>
+      </c>
+      <c r="N31" s="10">
+        <v>48</v>
+      </c>
+      <c r="O31" s="10">
+        <v>3011</v>
+      </c>
+      <c r="P31" s="11">
+        <v>606</v>
+      </c>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="22"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>18</v>
       </c>
@@ -2117,6 +6781,18 @@
       <c r="D32" s="10">
         <v>370</v>
       </c>
+      <c r="E32" s="10">
+        <v>23</v>
+      </c>
+      <c r="F32" s="10">
+        <v>20</v>
+      </c>
+      <c r="G32" s="10">
+        <v>3017</v>
+      </c>
+      <c r="H32" s="10">
+        <v>440</v>
+      </c>
       <c r="I32" s="15">
         <v>17</v>
       </c>
@@ -2129,9 +6805,22 @@
       <c r="L32" s="13">
         <v>500</v>
       </c>
-      <c r="P32" s="11"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M32" s="10">
+        <v>64</v>
+      </c>
+      <c r="N32" s="10">
+        <v>51</v>
+      </c>
+      <c r="O32" s="10">
+        <v>3009</v>
+      </c>
+      <c r="P32" s="11">
+        <v>593</v>
+      </c>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="22"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>10</v>
       </c>
@@ -2144,6 +6833,18 @@
       <c r="D33" s="10">
         <v>383</v>
       </c>
+      <c r="E33" s="10">
+        <v>20</v>
+      </c>
+      <c r="F33" s="10">
+        <v>13</v>
+      </c>
+      <c r="G33" s="10">
+        <v>3003</v>
+      </c>
+      <c r="H33" s="10">
+        <v>460</v>
+      </c>
       <c r="I33" s="15">
         <v>15</v>
       </c>
@@ -2156,9 +6857,22 @@
       <c r="L33" s="13">
         <v>542</v>
       </c>
-      <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M33" s="10">
+        <v>58</v>
+      </c>
+      <c r="N33" s="10">
+        <v>27</v>
+      </c>
+      <c r="O33" s="10">
+        <v>2998</v>
+      </c>
+      <c r="P33" s="11">
+        <v>592</v>
+      </c>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="22"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>16</v>
       </c>
@@ -2171,6 +6885,18 @@
       <c r="D34" s="10">
         <v>359</v>
       </c>
+      <c r="E34" s="10">
+        <v>17</v>
+      </c>
+      <c r="F34" s="10">
+        <v>17</v>
+      </c>
+      <c r="G34" s="10">
+        <v>3008</v>
+      </c>
+      <c r="H34" s="10">
+        <v>455</v>
+      </c>
       <c r="I34" s="15">
         <v>14</v>
       </c>
@@ -2183,9 +6909,22 @@
       <c r="L34" s="13">
         <v>525</v>
       </c>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M34" s="10">
+        <v>59</v>
+      </c>
+      <c r="N34" s="10">
+        <v>46</v>
+      </c>
+      <c r="O34" s="10">
+        <v>3020</v>
+      </c>
+      <c r="P34" s="11">
+        <v>565</v>
+      </c>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="22"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>17</v>
       </c>
@@ -2198,6 +6937,18 @@
       <c r="D35" s="10">
         <v>377</v>
       </c>
+      <c r="E35" s="10">
+        <v>14</v>
+      </c>
+      <c r="F35" s="10">
+        <v>11</v>
+      </c>
+      <c r="G35" s="10">
+        <v>3015</v>
+      </c>
+      <c r="H35" s="10">
+        <v>481</v>
+      </c>
       <c r="I35" s="15">
         <v>16</v>
       </c>
@@ -2210,9 +6961,22 @@
       <c r="L35" s="13">
         <v>747</v>
       </c>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M35" s="10">
+        <v>58</v>
+      </c>
+      <c r="N35" s="10">
+        <v>46</v>
+      </c>
+      <c r="O35" s="10">
+        <v>3000</v>
+      </c>
+      <c r="P35" s="11">
+        <v>596</v>
+      </c>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="22"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>19</v>
       </c>
@@ -2225,6 +6989,18 @@
       <c r="D36" s="10">
         <v>371</v>
       </c>
+      <c r="E36" s="10">
+        <v>22</v>
+      </c>
+      <c r="F36" s="10">
+        <v>19</v>
+      </c>
+      <c r="G36" s="10">
+        <v>3002</v>
+      </c>
+      <c r="H36" s="10">
+        <v>457</v>
+      </c>
       <c r="I36" s="15">
         <v>20</v>
       </c>
@@ -2237,9 +7013,22 @@
       <c r="L36" s="13">
         <v>540</v>
       </c>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M36" s="10">
+        <v>47</v>
+      </c>
+      <c r="N36" s="10">
+        <v>48</v>
+      </c>
+      <c r="O36" s="10">
+        <v>3002</v>
+      </c>
+      <c r="P36" s="11">
+        <v>604</v>
+      </c>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="22"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>18</v>
       </c>
@@ -2252,6 +7041,18 @@
       <c r="D37" s="10">
         <v>401</v>
       </c>
+      <c r="E37" s="10">
+        <v>25</v>
+      </c>
+      <c r="F37" s="10">
+        <v>21</v>
+      </c>
+      <c r="G37" s="10">
+        <v>3004</v>
+      </c>
+      <c r="H37" s="10">
+        <v>446</v>
+      </c>
       <c r="I37" s="15">
         <v>18</v>
       </c>
@@ -2264,9 +7065,22 @@
       <c r="L37" s="13">
         <v>502</v>
       </c>
-      <c r="P37" s="11"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M37" s="10">
+        <v>56</v>
+      </c>
+      <c r="N37" s="10">
+        <v>59</v>
+      </c>
+      <c r="O37" s="10">
+        <v>3025</v>
+      </c>
+      <c r="P37" s="11">
+        <v>578</v>
+      </c>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="22"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>12</v>
       </c>
@@ -2279,6 +7093,18 @@
       <c r="D38" s="10">
         <v>372</v>
       </c>
+      <c r="E38" s="10">
+        <v>19</v>
+      </c>
+      <c r="F38" s="10">
+        <v>26</v>
+      </c>
+      <c r="G38" s="10">
+        <v>3007</v>
+      </c>
+      <c r="H38" s="10">
+        <v>490</v>
+      </c>
       <c r="I38" s="15">
         <v>11</v>
       </c>
@@ -2291,9 +7117,22 @@
       <c r="L38" s="13">
         <v>537</v>
       </c>
-      <c r="P38" s="11"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M38" s="10">
+        <v>20</v>
+      </c>
+      <c r="N38" s="10">
+        <v>62</v>
+      </c>
+      <c r="O38" s="10">
+        <v>2991</v>
+      </c>
+      <c r="P38" s="11">
+        <v>652</v>
+      </c>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="22"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>9</v>
       </c>
@@ -2306,6 +7145,18 @@
       <c r="D39" s="10">
         <v>379</v>
       </c>
+      <c r="E39" s="10">
+        <v>20</v>
+      </c>
+      <c r="F39" s="10">
+        <v>34</v>
+      </c>
+      <c r="G39" s="10">
+        <v>3008</v>
+      </c>
+      <c r="H39" s="10">
+        <v>455</v>
+      </c>
       <c r="I39" s="15">
         <v>13</v>
       </c>
@@ -2318,9 +7169,22 @@
       <c r="L39" s="13">
         <v>534</v>
       </c>
-      <c r="P39" s="11"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M39" s="10">
+        <v>50</v>
+      </c>
+      <c r="N39" s="10">
+        <v>57</v>
+      </c>
+      <c r="O39" s="10">
+        <v>2998</v>
+      </c>
+      <c r="P39" s="11">
+        <v>568</v>
+      </c>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="22"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>16</v>
       </c>
@@ -2333,6 +7197,18 @@
       <c r="D40" s="10">
         <v>383</v>
       </c>
+      <c r="E40" s="10">
+        <v>22</v>
+      </c>
+      <c r="F40" s="10">
+        <v>20</v>
+      </c>
+      <c r="G40" s="10">
+        <v>3009</v>
+      </c>
+      <c r="H40" s="10">
+        <v>468</v>
+      </c>
       <c r="I40" s="15">
         <v>18</v>
       </c>
@@ -2345,9 +7221,22 @@
       <c r="L40" s="13">
         <v>532</v>
       </c>
-      <c r="P40" s="11"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M40" s="10">
+        <v>51</v>
+      </c>
+      <c r="N40" s="10">
+        <v>70</v>
+      </c>
+      <c r="O40" s="10">
+        <v>2991</v>
+      </c>
+      <c r="P40" s="11">
+        <v>625</v>
+      </c>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="22"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>18</v>
       </c>
@@ -2360,6 +7249,18 @@
       <c r="D41" s="10">
         <v>389</v>
       </c>
+      <c r="E41" s="10">
+        <v>14</v>
+      </c>
+      <c r="F41" s="10">
+        <v>19</v>
+      </c>
+      <c r="G41" s="10">
+        <v>3002</v>
+      </c>
+      <c r="H41" s="10">
+        <v>433</v>
+      </c>
       <c r="I41" s="15">
         <v>17</v>
       </c>
@@ -2372,9 +7273,22 @@
       <c r="L41" s="13">
         <v>505</v>
       </c>
-      <c r="P41" s="11"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M41" s="10">
+        <v>59</v>
+      </c>
+      <c r="N41" s="10">
+        <v>45</v>
+      </c>
+      <c r="O41" s="10">
+        <v>3006</v>
+      </c>
+      <c r="P41" s="11">
+        <v>604</v>
+      </c>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="22"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>18</v>
       </c>
@@ -2387,6 +7301,18 @@
       <c r="D42" s="10">
         <v>372</v>
       </c>
+      <c r="E42" s="10">
+        <v>20</v>
+      </c>
+      <c r="F42" s="10">
+        <v>15</v>
+      </c>
+      <c r="G42" s="10">
+        <v>3005</v>
+      </c>
+      <c r="H42" s="10">
+        <v>506</v>
+      </c>
       <c r="I42" s="15">
         <v>11</v>
       </c>
@@ -2399,9 +7325,22 @@
       <c r="L42" s="13">
         <v>519</v>
       </c>
-      <c r="P42" s="11"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M42" s="10">
+        <v>54</v>
+      </c>
+      <c r="N42" s="10">
+        <v>54</v>
+      </c>
+      <c r="O42" s="10">
+        <v>2999</v>
+      </c>
+      <c r="P42" s="11">
+        <v>648</v>
+      </c>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="22"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>17</v>
       </c>
@@ -2414,6 +7353,18 @@
       <c r="D43" s="10">
         <v>373</v>
       </c>
+      <c r="E43" s="10">
+        <v>13</v>
+      </c>
+      <c r="F43" s="10">
+        <v>19</v>
+      </c>
+      <c r="G43" s="10">
+        <v>3017</v>
+      </c>
+      <c r="H43" s="10">
+        <v>479</v>
+      </c>
       <c r="I43" s="15">
         <v>13</v>
       </c>
@@ -2426,9 +7377,22 @@
       <c r="L43" s="13">
         <v>548</v>
       </c>
-      <c r="P43" s="11"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M43" s="10">
+        <v>21</v>
+      </c>
+      <c r="N43" s="10">
+        <v>23</v>
+      </c>
+      <c r="O43" s="10">
+        <v>3009</v>
+      </c>
+      <c r="P43" s="11">
+        <v>591</v>
+      </c>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="22"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>17</v>
       </c>
@@ -2441,6 +7405,18 @@
       <c r="D44" s="10">
         <v>377</v>
       </c>
+      <c r="E44" s="10">
+        <v>23</v>
+      </c>
+      <c r="F44" s="10">
+        <v>25</v>
+      </c>
+      <c r="G44" s="10">
+        <v>2999</v>
+      </c>
+      <c r="H44" s="10">
+        <v>460</v>
+      </c>
       <c r="I44" s="15">
         <v>13</v>
       </c>
@@ -2453,9 +7429,22 @@
       <c r="L44" s="13">
         <v>533</v>
       </c>
-      <c r="P44" s="11"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M44" s="10">
+        <v>56</v>
+      </c>
+      <c r="N44" s="10">
+        <v>24</v>
+      </c>
+      <c r="O44" s="10">
+        <v>3007</v>
+      </c>
+      <c r="P44" s="11">
+        <v>581</v>
+      </c>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="22"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>18</v>
       </c>
@@ -2468,6 +7457,18 @@
       <c r="D45" s="10">
         <v>359</v>
       </c>
+      <c r="E45" s="10">
+        <v>13</v>
+      </c>
+      <c r="F45" s="10">
+        <v>23</v>
+      </c>
+      <c r="G45" s="10">
+        <v>3018</v>
+      </c>
+      <c r="H45" s="10">
+        <v>445</v>
+      </c>
       <c r="I45" s="15">
         <v>11</v>
       </c>
@@ -2480,9 +7481,22 @@
       <c r="L45" s="13">
         <v>521</v>
       </c>
-      <c r="P45" s="11"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M45" s="10">
+        <v>59</v>
+      </c>
+      <c r="N45" s="10">
+        <v>43</v>
+      </c>
+      <c r="O45" s="10">
+        <v>3009</v>
+      </c>
+      <c r="P45" s="11">
+        <v>597</v>
+      </c>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="22"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>17</v>
       </c>
@@ -2495,6 +7509,18 @@
       <c r="D46" s="10">
         <v>372</v>
       </c>
+      <c r="E46" s="10">
+        <v>15</v>
+      </c>
+      <c r="F46" s="10">
+        <v>16</v>
+      </c>
+      <c r="G46" s="10">
+        <v>3008</v>
+      </c>
+      <c r="H46" s="10">
+        <v>465</v>
+      </c>
       <c r="I46" s="15">
         <v>14</v>
       </c>
@@ -2507,9 +7533,22 @@
       <c r="L46" s="13">
         <v>531</v>
       </c>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M46" s="10">
+        <v>57</v>
+      </c>
+      <c r="N46" s="10">
+        <v>63</v>
+      </c>
+      <c r="O46" s="10">
+        <v>3006</v>
+      </c>
+      <c r="P46" s="11">
+        <v>603</v>
+      </c>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="22"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>17</v>
       </c>
@@ -2522,6 +7561,18 @@
       <c r="D47" s="10">
         <v>381</v>
       </c>
+      <c r="E47" s="10">
+        <v>21</v>
+      </c>
+      <c r="F47" s="10">
+        <v>20</v>
+      </c>
+      <c r="G47" s="10">
+        <v>3010</v>
+      </c>
+      <c r="H47" s="10">
+        <v>457</v>
+      </c>
       <c r="I47" s="15">
         <v>19</v>
       </c>
@@ -2534,9 +7585,22 @@
       <c r="L47" s="13">
         <v>537</v>
       </c>
-      <c r="P47" s="11"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M47" s="10">
+        <v>23</v>
+      </c>
+      <c r="N47" s="10">
+        <v>29</v>
+      </c>
+      <c r="O47" s="10">
+        <v>2994</v>
+      </c>
+      <c r="P47" s="11">
+        <v>638</v>
+      </c>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="22"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>18</v>
       </c>
@@ -2549,6 +7613,18 @@
       <c r="D48" s="10">
         <v>358</v>
       </c>
+      <c r="E48" s="10">
+        <v>14</v>
+      </c>
+      <c r="F48" s="10">
+        <v>23</v>
+      </c>
+      <c r="G48" s="10">
+        <v>3010</v>
+      </c>
+      <c r="H48" s="10">
+        <v>422</v>
+      </c>
       <c r="I48" s="15">
         <v>17</v>
       </c>
@@ -2561,9 +7637,22 @@
       <c r="L48" s="13">
         <v>578</v>
       </c>
-      <c r="P48" s="11"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M48" s="10">
+        <v>47</v>
+      </c>
+      <c r="N48" s="10">
+        <v>45</v>
+      </c>
+      <c r="O48" s="10">
+        <v>2999</v>
+      </c>
+      <c r="P48" s="11">
+        <v>624</v>
+      </c>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="22"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>10</v>
       </c>
@@ -2576,8 +7665,20 @@
       <c r="D49" s="10">
         <v>404</v>
       </c>
+      <c r="E49" s="10">
+        <v>21</v>
+      </c>
+      <c r="F49" s="10">
+        <v>18</v>
+      </c>
+      <c r="G49" s="10">
+        <v>3010</v>
+      </c>
+      <c r="H49" s="10">
+        <v>434</v>
+      </c>
       <c r="I49" s="15">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J49" s="13">
         <v>14</v>
@@ -2588,9 +7689,22 @@
       <c r="L49" s="13">
         <v>496</v>
       </c>
-      <c r="P49" s="11"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M49" s="10">
+        <v>40</v>
+      </c>
+      <c r="N49" s="10">
+        <v>50</v>
+      </c>
+      <c r="O49" s="10">
+        <v>3007</v>
+      </c>
+      <c r="P49" s="11">
+        <v>587</v>
+      </c>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="22"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>17</v>
       </c>
@@ -2603,6 +7717,18 @@
       <c r="D50" s="10">
         <v>380</v>
       </c>
+      <c r="E50" s="10">
+        <v>31</v>
+      </c>
+      <c r="F50" s="10">
+        <v>25</v>
+      </c>
+      <c r="G50" s="10">
+        <v>3014</v>
+      </c>
+      <c r="H50" s="10">
+        <v>467</v>
+      </c>
       <c r="I50" s="15">
         <v>13</v>
       </c>
@@ -2615,9 +7741,22 @@
       <c r="L50" s="13">
         <v>537</v>
       </c>
-      <c r="P50" s="11"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M50" s="10">
+        <v>48</v>
+      </c>
+      <c r="N50" s="10">
+        <v>24</v>
+      </c>
+      <c r="O50" s="10">
+        <v>3010</v>
+      </c>
+      <c r="P50" s="11">
+        <v>614</v>
+      </c>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="22"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>18</v>
       </c>
@@ -2630,6 +7769,18 @@
       <c r="D51" s="10">
         <v>375</v>
       </c>
+      <c r="E51" s="10">
+        <v>28</v>
+      </c>
+      <c r="F51" s="10">
+        <v>20</v>
+      </c>
+      <c r="G51" s="10">
+        <v>3009</v>
+      </c>
+      <c r="H51" s="10">
+        <v>503</v>
+      </c>
       <c r="I51" s="15">
         <v>19</v>
       </c>
@@ -2642,9 +7793,22 @@
       <c r="L51" s="13">
         <v>551</v>
       </c>
-      <c r="P51" s="11"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M51" s="10">
+        <v>47</v>
+      </c>
+      <c r="N51" s="10">
+        <v>45</v>
+      </c>
+      <c r="O51" s="10">
+        <v>2997</v>
+      </c>
+      <c r="P51" s="11">
+        <v>629</v>
+      </c>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="22"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>18</v>
       </c>
@@ -2657,6 +7821,18 @@
       <c r="D52" s="10">
         <v>380</v>
       </c>
+      <c r="E52" s="10">
+        <v>18</v>
+      </c>
+      <c r="F52" s="10">
+        <v>17</v>
+      </c>
+      <c r="G52" s="10">
+        <v>3013</v>
+      </c>
+      <c r="H52" s="10">
+        <v>444</v>
+      </c>
       <c r="I52" s="15">
         <v>15</v>
       </c>
@@ -2669,9 +7845,22 @@
       <c r="L52" s="13">
         <v>510</v>
       </c>
-      <c r="P52" s="11"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M52" s="10">
+        <v>50</v>
+      </c>
+      <c r="N52" s="10">
+        <v>49</v>
+      </c>
+      <c r="O52" s="10">
+        <v>3005</v>
+      </c>
+      <c r="P52" s="11">
+        <v>642</v>
+      </c>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="22"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>17</v>
       </c>
@@ -2684,6 +7873,18 @@
       <c r="D53" s="10">
         <v>381</v>
       </c>
+      <c r="E53" s="10">
+        <v>14</v>
+      </c>
+      <c r="F53" s="10">
+        <v>23</v>
+      </c>
+      <c r="G53" s="10">
+        <v>3016</v>
+      </c>
+      <c r="H53" s="10">
+        <v>435</v>
+      </c>
       <c r="I53" s="15">
         <v>36</v>
       </c>
@@ -2696,9 +7897,22 @@
       <c r="L53" s="13">
         <v>525</v>
       </c>
-      <c r="P53" s="11"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M53" s="10">
+        <v>60</v>
+      </c>
+      <c r="N53" s="10">
+        <v>27</v>
+      </c>
+      <c r="O53" s="10">
+        <v>3017</v>
+      </c>
+      <c r="P53" s="11">
+        <v>676</v>
+      </c>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="22"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>19</v>
       </c>
@@ -2711,6 +7925,18 @@
       <c r="D54" s="10">
         <v>369</v>
       </c>
+      <c r="E54" s="10">
+        <v>26</v>
+      </c>
+      <c r="F54" s="10">
+        <v>24</v>
+      </c>
+      <c r="G54" s="10">
+        <v>3008</v>
+      </c>
+      <c r="H54" s="10">
+        <v>442</v>
+      </c>
       <c r="I54" s="15">
         <v>25</v>
       </c>
@@ -2723,9 +7949,22 @@
       <c r="L54" s="13">
         <v>525</v>
       </c>
-      <c r="P54" s="11"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M54" s="10">
+        <v>63</v>
+      </c>
+      <c r="N54" s="10">
+        <v>50</v>
+      </c>
+      <c r="O54" s="10">
+        <v>3007</v>
+      </c>
+      <c r="P54" s="11">
+        <v>655</v>
+      </c>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="22"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>27</v>
       </c>
@@ -2738,6 +7977,18 @@
       <c r="D55" s="10">
         <v>387</v>
       </c>
+      <c r="E55" s="10">
+        <v>23</v>
+      </c>
+      <c r="F55" s="10">
+        <v>21</v>
+      </c>
+      <c r="G55" s="10">
+        <v>3004</v>
+      </c>
+      <c r="H55" s="10">
+        <v>440</v>
+      </c>
       <c r="I55" s="15">
         <v>26</v>
       </c>
@@ -2750,9 +8001,22 @@
       <c r="L55" s="13">
         <v>536</v>
       </c>
-      <c r="P55" s="11"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M55" s="10">
+        <v>41</v>
+      </c>
+      <c r="N55" s="10">
+        <v>24</v>
+      </c>
+      <c r="O55" s="10">
+        <v>3002</v>
+      </c>
+      <c r="P55" s="11">
+        <v>642</v>
+      </c>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="22"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>8</v>
       </c>
@@ -2765,6 +8029,18 @@
       <c r="D56" s="10">
         <v>361</v>
       </c>
+      <c r="E56" s="10">
+        <v>20</v>
+      </c>
+      <c r="F56" s="10">
+        <v>15</v>
+      </c>
+      <c r="G56" s="10">
+        <v>3004</v>
+      </c>
+      <c r="H56" s="10">
+        <v>515</v>
+      </c>
       <c r="I56" s="15">
         <v>14</v>
       </c>
@@ -2777,9 +8053,22 @@
       <c r="L56" s="13">
         <v>540</v>
       </c>
-      <c r="P56" s="11"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M56" s="10">
+        <v>21</v>
+      </c>
+      <c r="N56" s="10">
+        <v>49</v>
+      </c>
+      <c r="O56" s="10">
+        <v>2991</v>
+      </c>
+      <c r="P56" s="11">
+        <v>618</v>
+      </c>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="22"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>10</v>
       </c>
@@ -2792,6 +8081,18 @@
       <c r="D57" s="10">
         <v>387</v>
       </c>
+      <c r="E57" s="10">
+        <v>15</v>
+      </c>
+      <c r="F57" s="10">
+        <v>22</v>
+      </c>
+      <c r="G57" s="10">
+        <v>2999</v>
+      </c>
+      <c r="H57" s="10">
+        <v>450</v>
+      </c>
       <c r="I57" s="15">
         <v>22</v>
       </c>
@@ -2804,9 +8105,22 @@
       <c r="L57" s="13">
         <v>699</v>
       </c>
-      <c r="P57" s="11"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M57" s="10">
+        <v>56</v>
+      </c>
+      <c r="N57" s="10">
+        <v>37</v>
+      </c>
+      <c r="O57" s="10">
+        <v>2997</v>
+      </c>
+      <c r="P57" s="11">
+        <v>588</v>
+      </c>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="22"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>3</v>
       </c>
@@ -2819,6 +8133,18 @@
       <c r="D58" s="10">
         <v>385</v>
       </c>
+      <c r="E58" s="10">
+        <v>21</v>
+      </c>
+      <c r="F58" s="10">
+        <v>21</v>
+      </c>
+      <c r="G58" s="10">
+        <v>3002</v>
+      </c>
+      <c r="H58" s="10">
+        <v>509</v>
+      </c>
       <c r="I58" s="15">
         <v>16</v>
       </c>
@@ -2831,9 +8157,22 @@
       <c r="L58" s="13">
         <v>563</v>
       </c>
-      <c r="P58" s="11"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M58" s="10">
+        <v>48</v>
+      </c>
+      <c r="N58" s="10">
+        <v>47</v>
+      </c>
+      <c r="O58" s="10">
+        <v>2990</v>
+      </c>
+      <c r="P58" s="11">
+        <v>599</v>
+      </c>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="22"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>12</v>
       </c>
@@ -2846,6 +8185,18 @@
       <c r="D59" s="10">
         <v>366</v>
       </c>
+      <c r="E59" s="10">
+        <v>21</v>
+      </c>
+      <c r="F59" s="10">
+        <v>21</v>
+      </c>
+      <c r="G59" s="10">
+        <v>3001</v>
+      </c>
+      <c r="H59" s="10">
+        <v>451</v>
+      </c>
       <c r="I59" s="15">
         <v>17</v>
       </c>
@@ -2858,9 +8209,22 @@
       <c r="L59" s="13">
         <v>530</v>
       </c>
-      <c r="P59" s="11"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M59" s="10">
+        <v>52</v>
+      </c>
+      <c r="N59" s="10">
+        <v>32</v>
+      </c>
+      <c r="O59" s="10">
+        <v>2999</v>
+      </c>
+      <c r="P59" s="11">
+        <v>608</v>
+      </c>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="22"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>18</v>
       </c>
@@ -2873,6 +8237,18 @@
       <c r="D60" s="10">
         <v>365</v>
       </c>
+      <c r="E60" s="10">
+        <v>23</v>
+      </c>
+      <c r="F60" s="10">
+        <v>22</v>
+      </c>
+      <c r="G60" s="10">
+        <v>2996</v>
+      </c>
+      <c r="H60" s="10">
+        <v>465</v>
+      </c>
       <c r="I60" s="15">
         <v>14</v>
       </c>
@@ -2885,9 +8261,22 @@
       <c r="L60" s="13">
         <v>502</v>
       </c>
-      <c r="P60" s="11"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M60" s="10">
+        <v>60</v>
+      </c>
+      <c r="N60" s="10">
+        <v>24</v>
+      </c>
+      <c r="O60" s="10">
+        <v>3007</v>
+      </c>
+      <c r="P60" s="11">
+        <v>625</v>
+      </c>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="22"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>17</v>
       </c>
@@ -2900,6 +8289,18 @@
       <c r="D61" s="10">
         <v>383</v>
       </c>
+      <c r="E61" s="10">
+        <v>22</v>
+      </c>
+      <c r="F61" s="10">
+        <v>26</v>
+      </c>
+      <c r="G61" s="10">
+        <v>3011</v>
+      </c>
+      <c r="H61" s="10">
+        <v>470</v>
+      </c>
       <c r="I61" s="15">
         <v>16</v>
       </c>
@@ -2912,9 +8313,22 @@
       <c r="L61" s="13">
         <v>535</v>
       </c>
-      <c r="P61" s="11"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M61" s="10">
+        <v>48</v>
+      </c>
+      <c r="N61" s="10">
+        <v>52</v>
+      </c>
+      <c r="O61" s="10">
+        <v>3002</v>
+      </c>
+      <c r="P61" s="11">
+        <v>612</v>
+      </c>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="22"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>11</v>
       </c>
@@ -2927,6 +8341,18 @@
       <c r="D62" s="10">
         <v>379</v>
       </c>
+      <c r="E62" s="10">
+        <v>27</v>
+      </c>
+      <c r="F62" s="10">
+        <v>35</v>
+      </c>
+      <c r="G62" s="10">
+        <v>3008</v>
+      </c>
+      <c r="H62" s="10">
+        <v>451</v>
+      </c>
       <c r="I62" s="15">
         <v>14</v>
       </c>
@@ -2939,9 +8365,22 @@
       <c r="L62" s="13">
         <v>511</v>
       </c>
-      <c r="P62" s="11"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M62" s="10">
+        <v>41</v>
+      </c>
+      <c r="N62" s="10">
+        <v>48</v>
+      </c>
+      <c r="O62" s="10">
+        <v>2992</v>
+      </c>
+      <c r="P62" s="11">
+        <v>615</v>
+      </c>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="22"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>9</v>
       </c>
@@ -2954,8 +8393,20 @@
       <c r="D63" s="10">
         <v>404</v>
       </c>
+      <c r="E63" s="10">
+        <v>21</v>
+      </c>
+      <c r="F63" s="10">
+        <v>23</v>
+      </c>
+      <c r="G63" s="10">
+        <v>2994</v>
+      </c>
+      <c r="H63" s="10">
+        <v>462</v>
+      </c>
       <c r="I63" s="15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J63" s="13">
         <v>13</v>
@@ -2966,9 +8417,22 @@
       <c r="L63" s="13">
         <v>527</v>
       </c>
-      <c r="P63" s="11"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M63" s="10">
+        <v>46</v>
+      </c>
+      <c r="N63" s="10">
+        <v>26</v>
+      </c>
+      <c r="O63" s="10">
+        <v>3010</v>
+      </c>
+      <c r="P63" s="11">
+        <v>586</v>
+      </c>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="22"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>17</v>
       </c>
@@ -2981,6 +8445,18 @@
       <c r="D64" s="10">
         <v>388</v>
       </c>
+      <c r="E64" s="10">
+        <v>12</v>
+      </c>
+      <c r="F64" s="10">
+        <v>21</v>
+      </c>
+      <c r="G64" s="10">
+        <v>3005</v>
+      </c>
+      <c r="H64" s="10">
+        <v>454</v>
+      </c>
       <c r="I64" s="15">
         <v>19</v>
       </c>
@@ -2993,9 +8469,22 @@
       <c r="L64" s="13">
         <v>537</v>
       </c>
-      <c r="P64" s="11"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M64" s="10">
+        <v>47</v>
+      </c>
+      <c r="N64" s="10">
+        <v>49</v>
+      </c>
+      <c r="O64" s="10">
+        <v>3011</v>
+      </c>
+      <c r="P64" s="11">
+        <v>565</v>
+      </c>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="22"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>11</v>
       </c>
@@ -3008,6 +8497,18 @@
       <c r="D65" s="10">
         <v>388</v>
       </c>
+      <c r="E65" s="10">
+        <v>25</v>
+      </c>
+      <c r="F65" s="10">
+        <v>20</v>
+      </c>
+      <c r="G65" s="10">
+        <v>3005</v>
+      </c>
+      <c r="H65" s="10">
+        <v>440</v>
+      </c>
       <c r="I65" s="15">
         <v>12</v>
       </c>
@@ -3020,9 +8521,22 @@
       <c r="L65" s="13">
         <v>557</v>
       </c>
-      <c r="P65" s="11"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M65" s="10">
+        <v>52</v>
+      </c>
+      <c r="N65" s="10">
+        <v>47</v>
+      </c>
+      <c r="O65" s="10">
+        <v>2994</v>
+      </c>
+      <c r="P65" s="11">
+        <v>581</v>
+      </c>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="22"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>14</v>
       </c>
@@ -3035,6 +8549,18 @@
       <c r="D66" s="10">
         <v>377</v>
       </c>
+      <c r="E66" s="10">
+        <v>18</v>
+      </c>
+      <c r="F66" s="10">
+        <v>21</v>
+      </c>
+      <c r="G66" s="10">
+        <v>3002</v>
+      </c>
+      <c r="H66" s="10">
+        <v>480</v>
+      </c>
       <c r="I66" s="15">
         <v>15</v>
       </c>
@@ -3047,9 +8573,22 @@
       <c r="L66" s="13">
         <v>516</v>
       </c>
-      <c r="P66" s="11"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M66" s="10">
+        <v>40</v>
+      </c>
+      <c r="N66" s="10">
+        <v>35</v>
+      </c>
+      <c r="O66" s="10">
+        <v>3005</v>
+      </c>
+      <c r="P66" s="11">
+        <v>599</v>
+      </c>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="22"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>9</v>
       </c>
@@ -3062,6 +8601,18 @@
       <c r="D67" s="10">
         <v>376</v>
       </c>
+      <c r="E67" s="10">
+        <v>19</v>
+      </c>
+      <c r="F67" s="10">
+        <v>19</v>
+      </c>
+      <c r="G67" s="10">
+        <v>3003</v>
+      </c>
+      <c r="H67" s="10">
+        <v>465</v>
+      </c>
       <c r="I67" s="15">
         <v>19</v>
       </c>
@@ -3074,9 +8625,22 @@
       <c r="L67" s="13">
         <v>546</v>
       </c>
-      <c r="P67" s="11"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M67" s="10">
+        <v>59</v>
+      </c>
+      <c r="N67" s="10">
+        <v>51</v>
+      </c>
+      <c r="O67" s="10">
+        <v>3005</v>
+      </c>
+      <c r="P67" s="11">
+        <v>631</v>
+      </c>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="22"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>19</v>
       </c>
@@ -3089,6 +8653,18 @@
       <c r="D68" s="10">
         <v>380</v>
       </c>
+      <c r="E68" s="10">
+        <v>15</v>
+      </c>
+      <c r="F68" s="10">
+        <v>19</v>
+      </c>
+      <c r="G68" s="10">
+        <v>3015</v>
+      </c>
+      <c r="H68" s="10">
+        <v>474</v>
+      </c>
       <c r="I68" s="15">
         <v>14</v>
       </c>
@@ -3101,9 +8677,22 @@
       <c r="L68" s="13">
         <v>527</v>
       </c>
-      <c r="P68" s="11"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M68" s="10">
+        <v>51</v>
+      </c>
+      <c r="N68" s="10">
+        <v>36</v>
+      </c>
+      <c r="O68" s="10">
+        <v>3016</v>
+      </c>
+      <c r="P68" s="11">
+        <v>602</v>
+      </c>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="22"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>15</v>
       </c>
@@ -3116,8 +8705,20 @@
       <c r="D69" s="10">
         <v>375</v>
       </c>
+      <c r="E69" s="10">
+        <v>24</v>
+      </c>
+      <c r="F69" s="10">
+        <v>16</v>
+      </c>
+      <c r="G69" s="10">
+        <v>3002</v>
+      </c>
+      <c r="H69" s="10">
+        <v>453</v>
+      </c>
       <c r="I69" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J69" s="13">
         <v>10</v>
@@ -3128,9 +8729,22 @@
       <c r="L69" s="13">
         <v>534</v>
       </c>
-      <c r="P69" s="11"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M69" s="10">
+        <v>54</v>
+      </c>
+      <c r="N69" s="10">
+        <v>37</v>
+      </c>
+      <c r="O69" s="10">
+        <v>3003</v>
+      </c>
+      <c r="P69" s="11">
+        <v>597</v>
+      </c>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="22"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>15</v>
       </c>
@@ -3143,11 +8757,23 @@
       <c r="D70" s="10">
         <v>356</v>
       </c>
+      <c r="E70" s="10">
+        <v>23</v>
+      </c>
+      <c r="F70" s="10">
+        <v>19</v>
+      </c>
+      <c r="G70" s="10">
+        <v>2997</v>
+      </c>
+      <c r="H70" s="10">
+        <v>471</v>
+      </c>
       <c r="I70" s="15">
         <v>12</v>
       </c>
       <c r="J70" s="13">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K70" s="4">
         <v>3034</v>
@@ -3155,9 +8781,22 @@
       <c r="L70" s="13">
         <v>528</v>
       </c>
-      <c r="P70" s="11"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M70" s="10">
+        <v>54</v>
+      </c>
+      <c r="N70" s="10">
+        <v>68</v>
+      </c>
+      <c r="O70" s="10">
+        <v>3010</v>
+      </c>
+      <c r="P70" s="11">
+        <v>601</v>
+      </c>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="22"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>12</v>
       </c>
@@ -3170,6 +8809,18 @@
       <c r="D71" s="10">
         <v>366</v>
       </c>
+      <c r="E71" s="10">
+        <v>21</v>
+      </c>
+      <c r="F71" s="10">
+        <v>19</v>
+      </c>
+      <c r="G71" s="10">
+        <v>3008</v>
+      </c>
+      <c r="H71" s="10">
+        <v>424</v>
+      </c>
       <c r="I71" s="15">
         <v>16</v>
       </c>
@@ -3182,9 +8833,22 @@
       <c r="L71" s="13">
         <v>526</v>
       </c>
-      <c r="P71" s="11"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M71" s="10">
+        <v>46</v>
+      </c>
+      <c r="N71" s="10">
+        <v>46</v>
+      </c>
+      <c r="O71" s="10">
+        <v>3011</v>
+      </c>
+      <c r="P71" s="11">
+        <v>581</v>
+      </c>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="22"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>10</v>
       </c>
@@ -3197,6 +8861,18 @@
       <c r="D72" s="10">
         <v>369</v>
       </c>
+      <c r="E72" s="10">
+        <v>22</v>
+      </c>
+      <c r="F72" s="10">
+        <v>18</v>
+      </c>
+      <c r="G72" s="10">
+        <v>3002</v>
+      </c>
+      <c r="H72" s="10">
+        <v>439</v>
+      </c>
       <c r="I72" s="15">
         <v>14</v>
       </c>
@@ -3209,9 +8885,22 @@
       <c r="L72" s="13">
         <v>539</v>
       </c>
-      <c r="P72" s="11"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M72" s="10">
+        <v>36</v>
+      </c>
+      <c r="N72" s="10">
+        <v>64</v>
+      </c>
+      <c r="O72" s="10">
+        <v>3006</v>
+      </c>
+      <c r="P72" s="11">
+        <v>635</v>
+      </c>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="22"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>8</v>
       </c>
@@ -3224,6 +8913,18 @@
       <c r="D73" s="10">
         <v>396</v>
       </c>
+      <c r="E73" s="10">
+        <v>16</v>
+      </c>
+      <c r="F73" s="10">
+        <v>24</v>
+      </c>
+      <c r="G73" s="10">
+        <v>3011</v>
+      </c>
+      <c r="H73" s="10">
+        <v>436</v>
+      </c>
       <c r="I73" s="15">
         <v>33</v>
       </c>
@@ -3236,9 +8937,22 @@
       <c r="L73" s="13">
         <v>529</v>
       </c>
-      <c r="P73" s="11"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M73" s="10">
+        <v>50</v>
+      </c>
+      <c r="N73" s="10">
+        <v>32</v>
+      </c>
+      <c r="O73" s="10">
+        <v>2997</v>
+      </c>
+      <c r="P73" s="11">
+        <v>601</v>
+      </c>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="22"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>17</v>
       </c>
@@ -3251,6 +8965,18 @@
       <c r="D74" s="10">
         <v>367</v>
       </c>
+      <c r="E74" s="10">
+        <v>32</v>
+      </c>
+      <c r="F74" s="10">
+        <v>13</v>
+      </c>
+      <c r="G74" s="10">
+        <v>3001</v>
+      </c>
+      <c r="H74" s="10">
+        <v>485</v>
+      </c>
       <c r="I74" s="15">
         <v>28</v>
       </c>
@@ -3263,9 +8989,22 @@
       <c r="L74" s="13">
         <v>516</v>
       </c>
-      <c r="P74" s="11"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M74" s="10">
+        <v>43</v>
+      </c>
+      <c r="N74" s="10">
+        <v>43</v>
+      </c>
+      <c r="O74" s="10">
+        <v>3015</v>
+      </c>
+      <c r="P74" s="11">
+        <v>608</v>
+      </c>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="22"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>18</v>
       </c>
@@ -3278,6 +9017,18 @@
       <c r="D75" s="10">
         <v>413</v>
       </c>
+      <c r="E75" s="10">
+        <v>19</v>
+      </c>
+      <c r="F75" s="10">
+        <v>20</v>
+      </c>
+      <c r="G75" s="10">
+        <v>3017</v>
+      </c>
+      <c r="H75" s="10">
+        <v>425</v>
+      </c>
       <c r="I75" s="15">
         <v>16</v>
       </c>
@@ -3290,9 +9041,22 @@
       <c r="L75" s="13">
         <v>526</v>
       </c>
-      <c r="P75" s="11"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M75" s="10">
+        <v>51</v>
+      </c>
+      <c r="N75" s="10">
+        <v>42</v>
+      </c>
+      <c r="O75" s="10">
+        <v>3025</v>
+      </c>
+      <c r="P75" s="11">
+        <v>623</v>
+      </c>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="22"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>8</v>
       </c>
@@ -3305,6 +9069,18 @@
       <c r="D76" s="10">
         <v>537</v>
       </c>
+      <c r="E76" s="10">
+        <v>15</v>
+      </c>
+      <c r="F76" s="10">
+        <v>25</v>
+      </c>
+      <c r="G76" s="10">
+        <v>3009</v>
+      </c>
+      <c r="H76" s="10">
+        <v>450</v>
+      </c>
       <c r="I76" s="15">
         <v>14</v>
       </c>
@@ -3317,9 +9093,22 @@
       <c r="L76" s="13">
         <v>514</v>
       </c>
-      <c r="P76" s="11"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M76" s="10">
+        <v>45</v>
+      </c>
+      <c r="N76" s="10">
+        <v>36</v>
+      </c>
+      <c r="O76" s="10">
+        <v>3034</v>
+      </c>
+      <c r="P76" s="11">
+        <v>625</v>
+      </c>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="22"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>13</v>
       </c>
@@ -3332,6 +9121,18 @@
       <c r="D77" s="10">
         <v>508</v>
       </c>
+      <c r="E77" s="10">
+        <v>16</v>
+      </c>
+      <c r="F77" s="10">
+        <v>20</v>
+      </c>
+      <c r="G77" s="10">
+        <v>3002</v>
+      </c>
+      <c r="H77" s="10">
+        <v>452</v>
+      </c>
       <c r="I77" s="15">
         <v>14</v>
       </c>
@@ -3344,9 +9145,22 @@
       <c r="L77" s="13">
         <v>516</v>
       </c>
-      <c r="P77" s="11"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M77" s="10">
+        <v>73</v>
+      </c>
+      <c r="N77" s="10">
+        <v>39</v>
+      </c>
+      <c r="O77" s="10">
+        <v>3005</v>
+      </c>
+      <c r="P77" s="11">
+        <v>601</v>
+      </c>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="22"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>8</v>
       </c>
@@ -3359,6 +9173,18 @@
       <c r="D78" s="10">
         <v>588</v>
       </c>
+      <c r="E78" s="10">
+        <v>25</v>
+      </c>
+      <c r="F78" s="10">
+        <v>25</v>
+      </c>
+      <c r="G78" s="10">
+        <v>3007</v>
+      </c>
+      <c r="H78" s="10">
+        <v>493</v>
+      </c>
       <c r="I78" s="15">
         <v>13</v>
       </c>
@@ -3371,9 +9197,22 @@
       <c r="L78" s="13">
         <v>527</v>
       </c>
-      <c r="P78" s="11"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M78" s="10">
+        <v>65</v>
+      </c>
+      <c r="N78" s="10">
+        <v>51</v>
+      </c>
+      <c r="O78" s="10">
+        <v>3017</v>
+      </c>
+      <c r="P78" s="11">
+        <v>560</v>
+      </c>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="22"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>9</v>
       </c>
@@ -3386,6 +9225,18 @@
       <c r="D79" s="10">
         <v>375</v>
       </c>
+      <c r="E79" s="10">
+        <v>17</v>
+      </c>
+      <c r="F79" s="10">
+        <v>22</v>
+      </c>
+      <c r="G79" s="10">
+        <v>3009</v>
+      </c>
+      <c r="H79" s="10">
+        <v>424</v>
+      </c>
       <c r="I79" s="15">
         <v>14</v>
       </c>
@@ -3398,9 +9249,22 @@
       <c r="L79" s="13">
         <v>523</v>
       </c>
-      <c r="P79" s="11"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M79" s="10">
+        <v>55</v>
+      </c>
+      <c r="N79" s="10">
+        <v>35</v>
+      </c>
+      <c r="O79" s="10">
+        <v>3010</v>
+      </c>
+      <c r="P79" s="11">
+        <v>602</v>
+      </c>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="22"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>13</v>
       </c>
@@ -3413,6 +9277,18 @@
       <c r="D80" s="10">
         <v>404</v>
       </c>
+      <c r="E80" s="10">
+        <v>20</v>
+      </c>
+      <c r="F80" s="10">
+        <v>17</v>
+      </c>
+      <c r="G80" s="10">
+        <v>3006</v>
+      </c>
+      <c r="H80" s="10">
+        <v>458</v>
+      </c>
       <c r="I80" s="15">
         <v>13</v>
       </c>
@@ -3425,9 +9301,22 @@
       <c r="L80" s="13">
         <v>534</v>
       </c>
-      <c r="P80" s="11"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M80" s="10">
+        <v>49</v>
+      </c>
+      <c r="N80" s="10">
+        <v>25</v>
+      </c>
+      <c r="O80" s="10">
+        <v>2992</v>
+      </c>
+      <c r="P80" s="11">
+        <v>604</v>
+      </c>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="22"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>17</v>
       </c>
@@ -3440,6 +9329,18 @@
       <c r="D81" s="10">
         <v>426</v>
       </c>
+      <c r="E81" s="10">
+        <v>21</v>
+      </c>
+      <c r="F81" s="10">
+        <v>22</v>
+      </c>
+      <c r="G81" s="10">
+        <v>2993</v>
+      </c>
+      <c r="H81" s="10">
+        <v>446</v>
+      </c>
       <c r="I81" s="15">
         <v>16</v>
       </c>
@@ -3452,9 +9353,22 @@
       <c r="L81" s="13">
         <v>527</v>
       </c>
-      <c r="P81" s="11"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M81" s="10">
+        <v>34</v>
+      </c>
+      <c r="N81" s="10">
+        <v>28</v>
+      </c>
+      <c r="O81" s="10">
+        <v>2998</v>
+      </c>
+      <c r="P81" s="11">
+        <v>588</v>
+      </c>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="22"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>17</v>
       </c>
@@ -3467,6 +9381,18 @@
       <c r="D82" s="10">
         <v>373</v>
       </c>
+      <c r="E82" s="10">
+        <v>14</v>
+      </c>
+      <c r="F82" s="10">
+        <v>17</v>
+      </c>
+      <c r="G82" s="10">
+        <v>2999</v>
+      </c>
+      <c r="H82" s="10">
+        <v>421</v>
+      </c>
       <c r="I82" s="15">
         <v>15</v>
       </c>
@@ -3479,9 +9405,22 @@
       <c r="L82" s="13">
         <v>553</v>
       </c>
-      <c r="P82" s="11"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M82" s="10">
+        <v>36</v>
+      </c>
+      <c r="N82" s="10">
+        <v>45</v>
+      </c>
+      <c r="O82" s="10">
+        <v>3002</v>
+      </c>
+      <c r="P82" s="11">
+        <v>556</v>
+      </c>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="22"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>10</v>
       </c>
@@ -3494,6 +9433,18 @@
       <c r="D83" s="10">
         <v>376</v>
       </c>
+      <c r="E83" s="10">
+        <v>14</v>
+      </c>
+      <c r="F83" s="10">
+        <v>21</v>
+      </c>
+      <c r="G83" s="10">
+        <v>3012</v>
+      </c>
+      <c r="H83" s="10">
+        <v>474</v>
+      </c>
       <c r="I83" s="15">
         <v>18</v>
       </c>
@@ -3506,9 +9457,22 @@
       <c r="L83" s="13">
         <v>536</v>
       </c>
-      <c r="P83" s="11"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M83" s="10">
+        <v>15</v>
+      </c>
+      <c r="N83" s="10">
+        <v>34</v>
+      </c>
+      <c r="O83" s="10">
+        <v>3000</v>
+      </c>
+      <c r="P83" s="11">
+        <v>612</v>
+      </c>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="22"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>16</v>
       </c>
@@ -3521,6 +9485,18 @@
       <c r="D84" s="10">
         <v>364</v>
       </c>
+      <c r="E84" s="10">
+        <v>20</v>
+      </c>
+      <c r="F84" s="10">
+        <v>14</v>
+      </c>
+      <c r="G84" s="10">
+        <v>3000</v>
+      </c>
+      <c r="H84" s="10">
+        <v>425</v>
+      </c>
       <c r="I84" s="15">
         <v>14</v>
       </c>
@@ -3533,9 +9509,22 @@
       <c r="L84" s="13">
         <v>563</v>
       </c>
-      <c r="P84" s="11"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M84" s="10">
+        <v>46</v>
+      </c>
+      <c r="N84" s="10">
+        <v>35</v>
+      </c>
+      <c r="O84" s="10">
+        <v>3006</v>
+      </c>
+      <c r="P84" s="11">
+        <v>609</v>
+      </c>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="22"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
         <v>9</v>
       </c>
@@ -3548,6 +9537,18 @@
       <c r="D85" s="10">
         <v>864</v>
       </c>
+      <c r="E85" s="10">
+        <v>18</v>
+      </c>
+      <c r="F85" s="10">
+        <v>21</v>
+      </c>
+      <c r="G85" s="10">
+        <v>3013</v>
+      </c>
+      <c r="H85" s="10">
+        <v>425</v>
+      </c>
       <c r="I85" s="15">
         <v>15</v>
       </c>
@@ -3560,9 +9561,22 @@
       <c r="L85" s="13">
         <v>551</v>
       </c>
-      <c r="P85" s="11"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M85" s="10">
+        <v>64</v>
+      </c>
+      <c r="N85" s="10">
+        <v>51</v>
+      </c>
+      <c r="O85" s="10">
+        <v>3017</v>
+      </c>
+      <c r="P85" s="11">
+        <v>596</v>
+      </c>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="22"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <v>19</v>
       </c>
@@ -3575,6 +9589,18 @@
       <c r="D86" s="10">
         <v>426</v>
       </c>
+      <c r="E86" s="10">
+        <v>29</v>
+      </c>
+      <c r="F86" s="10">
+        <v>22</v>
+      </c>
+      <c r="G86" s="10">
+        <v>3008</v>
+      </c>
+      <c r="H86" s="10">
+        <v>458</v>
+      </c>
       <c r="I86" s="15">
         <v>15</v>
       </c>
@@ -3587,9 +9613,22 @@
       <c r="L86" s="13">
         <v>554</v>
       </c>
-      <c r="P86" s="11"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M86" s="10">
+        <v>50</v>
+      </c>
+      <c r="N86" s="10">
+        <v>40</v>
+      </c>
+      <c r="O86" s="10">
+        <v>3024</v>
+      </c>
+      <c r="P86" s="11">
+        <v>626</v>
+      </c>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="22"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
         <v>18</v>
       </c>
@@ -3602,6 +9641,18 @@
       <c r="D87" s="10">
         <v>385</v>
       </c>
+      <c r="E87" s="10">
+        <v>20</v>
+      </c>
+      <c r="F87" s="10">
+        <v>13</v>
+      </c>
+      <c r="G87" s="10">
+        <v>3004</v>
+      </c>
+      <c r="H87" s="10">
+        <v>432</v>
+      </c>
       <c r="I87" s="15">
         <v>15</v>
       </c>
@@ -3614,9 +9665,22 @@
       <c r="L87" s="13">
         <v>528</v>
       </c>
-      <c r="P87" s="11"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M87" s="10">
+        <v>47</v>
+      </c>
+      <c r="N87" s="10">
+        <v>46</v>
+      </c>
+      <c r="O87" s="10">
+        <v>3003</v>
+      </c>
+      <c r="P87" s="11">
+        <v>587</v>
+      </c>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="22"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>14</v>
       </c>
@@ -3629,8 +9693,20 @@
       <c r="D88" s="10">
         <v>386</v>
       </c>
+      <c r="E88" s="10">
+        <v>23</v>
+      </c>
+      <c r="F88" s="10">
+        <v>18</v>
+      </c>
+      <c r="G88" s="10">
+        <v>3006</v>
+      </c>
+      <c r="H88" s="10">
+        <v>445</v>
+      </c>
       <c r="I88" s="15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J88" s="13">
         <v>17</v>
@@ -3641,9 +9717,22 @@
       <c r="L88" s="13">
         <v>522</v>
       </c>
-      <c r="P88" s="11"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M88" s="10">
+        <v>46</v>
+      </c>
+      <c r="N88" s="10">
+        <v>22</v>
+      </c>
+      <c r="O88" s="10">
+        <v>3003</v>
+      </c>
+      <c r="P88" s="11">
+        <v>642</v>
+      </c>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="22"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
         <v>9</v>
       </c>
@@ -3656,6 +9745,18 @@
       <c r="D89" s="10">
         <v>377</v>
       </c>
+      <c r="E89" s="10">
+        <v>28</v>
+      </c>
+      <c r="F89" s="10">
+        <v>22</v>
+      </c>
+      <c r="G89" s="10">
+        <v>3001</v>
+      </c>
+      <c r="H89" s="10">
+        <v>457</v>
+      </c>
       <c r="I89" s="15">
         <v>12</v>
       </c>
@@ -3668,9 +9769,22 @@
       <c r="L89" s="13">
         <v>527</v>
       </c>
-      <c r="P89" s="11"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M89" s="10">
+        <v>41</v>
+      </c>
+      <c r="N89" s="10">
+        <v>32</v>
+      </c>
+      <c r="O89" s="10">
+        <v>3018</v>
+      </c>
+      <c r="P89" s="11">
+        <v>590</v>
+      </c>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="22"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>16</v>
       </c>
@@ -3683,6 +9797,18 @@
       <c r="D90" s="10">
         <v>383</v>
       </c>
+      <c r="E90" s="10">
+        <v>18</v>
+      </c>
+      <c r="F90" s="10">
+        <v>21</v>
+      </c>
+      <c r="G90" s="10">
+        <v>3002</v>
+      </c>
+      <c r="H90" s="10">
+        <v>432</v>
+      </c>
       <c r="I90" s="15">
         <v>15</v>
       </c>
@@ -3695,9 +9821,22 @@
       <c r="L90" s="13">
         <v>525</v>
       </c>
-      <c r="P90" s="11"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M90" s="10">
+        <v>21</v>
+      </c>
+      <c r="N90" s="10">
+        <v>44</v>
+      </c>
+      <c r="O90" s="10">
+        <v>3005</v>
+      </c>
+      <c r="P90" s="11">
+        <v>591</v>
+      </c>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="22"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>17</v>
       </c>
@@ -3710,6 +9849,18 @@
       <c r="D91" s="10">
         <v>364</v>
       </c>
+      <c r="E91" s="10">
+        <v>22</v>
+      </c>
+      <c r="F91" s="10">
+        <v>23</v>
+      </c>
+      <c r="G91" s="10">
+        <v>3006</v>
+      </c>
+      <c r="H91" s="10">
+        <v>431</v>
+      </c>
       <c r="I91" s="15">
         <v>15</v>
       </c>
@@ -3722,9 +9873,22 @@
       <c r="L91" s="13">
         <v>527</v>
       </c>
-      <c r="P91" s="11"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M91" s="10">
+        <v>39</v>
+      </c>
+      <c r="N91" s="10">
+        <v>42</v>
+      </c>
+      <c r="O91" s="10">
+        <v>3005</v>
+      </c>
+      <c r="P91" s="11">
+        <v>634</v>
+      </c>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="22"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>18</v>
       </c>
@@ -3737,8 +9901,20 @@
       <c r="D92" s="10">
         <v>378</v>
       </c>
+      <c r="E92" s="10">
+        <v>22</v>
+      </c>
+      <c r="F92" s="10">
+        <v>14</v>
+      </c>
+      <c r="G92" s="10">
+        <v>3008</v>
+      </c>
+      <c r="H92" s="10">
+        <v>430</v>
+      </c>
       <c r="I92" s="15">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J92" s="13">
         <v>18</v>
@@ -3749,9 +9925,22 @@
       <c r="L92" s="13">
         <v>538</v>
       </c>
-      <c r="P92" s="11"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M92" s="10">
+        <v>42</v>
+      </c>
+      <c r="N92" s="10">
+        <v>43</v>
+      </c>
+      <c r="O92" s="10">
+        <v>3005</v>
+      </c>
+      <c r="P92" s="11">
+        <v>595</v>
+      </c>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="22"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>17</v>
       </c>
@@ -3764,6 +9953,18 @@
       <c r="D93" s="10">
         <v>380</v>
       </c>
+      <c r="E93" s="10">
+        <v>21</v>
+      </c>
+      <c r="F93" s="10">
+        <v>23</v>
+      </c>
+      <c r="G93" s="10">
+        <v>3009</v>
+      </c>
+      <c r="H93" s="10">
+        <v>436</v>
+      </c>
       <c r="I93" s="15">
         <v>14</v>
       </c>
@@ -3776,9 +9977,22 @@
       <c r="L93" s="13">
         <v>544</v>
       </c>
-      <c r="P93" s="11"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M93" s="10">
+        <v>48</v>
+      </c>
+      <c r="N93" s="10">
+        <v>48</v>
+      </c>
+      <c r="O93" s="10">
+        <v>3004</v>
+      </c>
+      <c r="P93" s="11">
+        <v>577</v>
+      </c>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="22"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>17</v>
       </c>
@@ -3791,6 +10005,18 @@
       <c r="D94" s="10">
         <v>441</v>
       </c>
+      <c r="E94" s="10">
+        <v>14</v>
+      </c>
+      <c r="F94" s="10">
+        <v>21</v>
+      </c>
+      <c r="G94" s="10">
+        <v>3005</v>
+      </c>
+      <c r="H94" s="10">
+        <v>448</v>
+      </c>
       <c r="I94" s="15">
         <v>12</v>
       </c>
@@ -3803,9 +10029,22 @@
       <c r="L94" s="13">
         <v>541</v>
       </c>
-      <c r="P94" s="11"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M94" s="10">
+        <v>45</v>
+      </c>
+      <c r="N94" s="10">
+        <v>45</v>
+      </c>
+      <c r="O94" s="10">
+        <v>3004</v>
+      </c>
+      <c r="P94" s="11">
+        <v>588</v>
+      </c>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="22"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>18</v>
       </c>
@@ -3818,6 +10057,18 @@
       <c r="D95" s="10">
         <v>373</v>
       </c>
+      <c r="E95" s="10">
+        <v>14</v>
+      </c>
+      <c r="F95" s="10">
+        <v>18</v>
+      </c>
+      <c r="G95" s="10">
+        <v>3012</v>
+      </c>
+      <c r="H95" s="10">
+        <v>462</v>
+      </c>
       <c r="I95" s="15">
         <v>15</v>
       </c>
@@ -3830,9 +10081,22 @@
       <c r="L95" s="13">
         <v>555</v>
       </c>
-      <c r="P95" s="11"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M95" s="10">
+        <v>38</v>
+      </c>
+      <c r="N95" s="10">
+        <v>67</v>
+      </c>
+      <c r="O95" s="10">
+        <v>3011</v>
+      </c>
+      <c r="P95" s="11">
+        <v>586</v>
+      </c>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="22"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>17</v>
       </c>
@@ -3845,6 +10109,18 @@
       <c r="D96" s="10">
         <v>391</v>
       </c>
+      <c r="E96" s="10">
+        <v>17</v>
+      </c>
+      <c r="F96" s="10">
+        <v>21</v>
+      </c>
+      <c r="G96" s="10">
+        <v>3012</v>
+      </c>
+      <c r="H96" s="10">
+        <v>451</v>
+      </c>
       <c r="I96" s="15">
         <v>23</v>
       </c>
@@ -3857,9 +10133,22 @@
       <c r="L96" s="13">
         <v>529</v>
       </c>
-      <c r="P96" s="11"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M96" s="10">
+        <v>47</v>
+      </c>
+      <c r="N96" s="10">
+        <v>61</v>
+      </c>
+      <c r="O96" s="10">
+        <v>3015</v>
+      </c>
+      <c r="P96" s="11">
+        <v>561</v>
+      </c>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="22"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>8</v>
       </c>
@@ -3872,6 +10161,18 @@
       <c r="D97" s="10">
         <v>392</v>
       </c>
+      <c r="E97" s="10">
+        <v>21</v>
+      </c>
+      <c r="F97" s="10">
+        <v>21</v>
+      </c>
+      <c r="G97" s="10">
+        <v>3009</v>
+      </c>
+      <c r="H97" s="10">
+        <v>449</v>
+      </c>
       <c r="I97" s="15">
         <v>12</v>
       </c>
@@ -3884,9 +10185,22 @@
       <c r="L97" s="13">
         <v>541</v>
       </c>
-      <c r="P97" s="11"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M97" s="10">
+        <v>40</v>
+      </c>
+      <c r="N97" s="10">
+        <v>46</v>
+      </c>
+      <c r="O97" s="10">
+        <v>3013</v>
+      </c>
+      <c r="P97" s="11">
+        <v>598</v>
+      </c>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="22"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>15</v>
       </c>
@@ -3899,6 +10213,18 @@
       <c r="D98" s="10">
         <v>559</v>
       </c>
+      <c r="E98" s="10">
+        <v>16</v>
+      </c>
+      <c r="F98" s="10">
+        <v>24</v>
+      </c>
+      <c r="G98" s="10">
+        <v>3010</v>
+      </c>
+      <c r="H98" s="10">
+        <v>467</v>
+      </c>
       <c r="I98" s="15">
         <v>15</v>
       </c>
@@ -3911,9 +10237,22 @@
       <c r="L98" s="13">
         <v>527</v>
       </c>
-      <c r="P98" s="11"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M98" s="10">
+        <v>38</v>
+      </c>
+      <c r="N98" s="10">
+        <v>39</v>
+      </c>
+      <c r="O98" s="10">
+        <v>3007</v>
+      </c>
+      <c r="P98" s="11">
+        <v>567</v>
+      </c>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="22"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>10</v>
       </c>
@@ -3926,6 +10265,18 @@
       <c r="D99" s="10">
         <v>397</v>
       </c>
+      <c r="E99" s="10">
+        <v>14</v>
+      </c>
+      <c r="F99" s="10">
+        <v>22</v>
+      </c>
+      <c r="G99" s="10">
+        <v>3009</v>
+      </c>
+      <c r="H99" s="10">
+        <v>445</v>
+      </c>
       <c r="I99" s="15">
         <v>22</v>
       </c>
@@ -3938,9 +10289,22 @@
       <c r="L99" s="13">
         <v>530</v>
       </c>
-      <c r="P99" s="11"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M99" s="10">
+        <v>38</v>
+      </c>
+      <c r="N99" s="10">
+        <v>42</v>
+      </c>
+      <c r="O99" s="10">
+        <v>3004</v>
+      </c>
+      <c r="P99" s="11">
+        <v>616</v>
+      </c>
+      <c r="Q99" s="10"/>
+      <c r="R99" s="22"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>17</v>
       </c>
@@ -3953,6 +10317,18 @@
       <c r="D100" s="10">
         <v>376</v>
       </c>
+      <c r="E100" s="10">
+        <v>31</v>
+      </c>
+      <c r="F100" s="10">
+        <v>27</v>
+      </c>
+      <c r="G100" s="10">
+        <v>3012</v>
+      </c>
+      <c r="H100" s="10">
+        <v>455</v>
+      </c>
       <c r="I100" s="15">
         <v>15</v>
       </c>
@@ -3965,9 +10341,22 @@
       <c r="L100" s="13">
         <v>505</v>
       </c>
-      <c r="P100" s="11"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M100" s="10">
+        <v>36</v>
+      </c>
+      <c r="N100" s="10">
+        <v>39</v>
+      </c>
+      <c r="O100" s="10">
+        <v>3007</v>
+      </c>
+      <c r="P100" s="11">
+        <v>581</v>
+      </c>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="22"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>18</v>
       </c>
@@ -3980,8 +10369,20 @@
       <c r="D101" s="10">
         <v>398</v>
       </c>
+      <c r="E101" s="10">
+        <v>17</v>
+      </c>
+      <c r="F101" s="10">
+        <v>17</v>
+      </c>
+      <c r="G101" s="10">
+        <v>3004</v>
+      </c>
+      <c r="H101" s="10">
+        <v>435</v>
+      </c>
       <c r="I101" s="15">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J101" s="13">
         <v>46</v>
@@ -3992,9 +10393,22 @@
       <c r="L101" s="13">
         <v>522</v>
       </c>
-      <c r="P101" s="11"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M101" s="10">
+        <v>56</v>
+      </c>
+      <c r="N101" s="10">
+        <v>49</v>
+      </c>
+      <c r="O101" s="10">
+        <v>3007</v>
+      </c>
+      <c r="P101" s="11">
+        <v>588</v>
+      </c>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="22"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>16</v>
       </c>
@@ -4007,6 +10421,18 @@
       <c r="D102" s="10">
         <v>384</v>
       </c>
+      <c r="E102" s="10">
+        <v>28</v>
+      </c>
+      <c r="F102" s="10">
+        <v>18</v>
+      </c>
+      <c r="G102" s="10">
+        <v>2999</v>
+      </c>
+      <c r="H102" s="10">
+        <v>452</v>
+      </c>
       <c r="I102" s="15">
         <v>12</v>
       </c>
@@ -4019,9 +10445,22 @@
       <c r="L102" s="13">
         <v>493</v>
       </c>
-      <c r="P102" s="11"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M102" s="10">
+        <v>43</v>
+      </c>
+      <c r="N102" s="10">
+        <v>65</v>
+      </c>
+      <c r="O102" s="10">
+        <v>3027</v>
+      </c>
+      <c r="P102" s="11">
+        <v>619</v>
+      </c>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="22"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>18</v>
       </c>
@@ -4034,8 +10473,20 @@
       <c r="D103" s="10">
         <v>384</v>
       </c>
+      <c r="E103" s="10">
+        <v>31</v>
+      </c>
+      <c r="F103" s="10">
+        <v>21</v>
+      </c>
+      <c r="G103" s="10">
+        <v>3005</v>
+      </c>
+      <c r="H103" s="10">
+        <v>475</v>
+      </c>
       <c r="I103" s="15">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J103" s="13">
         <v>17</v>
@@ -4046,87 +10497,330 @@
       <c r="L103" s="13">
         <v>522</v>
       </c>
-      <c r="P103" s="11"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="17">
-        <f>AVERAGEA(A4:A103)</f>
+      <c r="M103" s="10">
+        <v>40</v>
+      </c>
+      <c r="N103" s="10">
+        <v>45</v>
+      </c>
+      <c r="O103" s="10">
+        <v>3004</v>
+      </c>
+      <c r="P103" s="11">
+        <v>613</v>
+      </c>
+      <c r="Q103" s="10"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A104" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
+      <c r="R104" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="S104" s="34"/>
+      <c r="T104" s="34"/>
+      <c r="U104" s="34"/>
+      <c r="V104" s="34"/>
+      <c r="W104" s="34"/>
+      <c r="X104" s="34"/>
+      <c r="Y104" s="34"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A105" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="35"/>
+      <c r="M105" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N105" s="35"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
+      <c r="R105" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="S105" s="32"/>
+      <c r="T105" s="32"/>
+      <c r="U105" s="33"/>
+      <c r="V105" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="W105" s="32"/>
+      <c r="X105" s="32"/>
+      <c r="Y105" s="33"/>
+    </row>
+    <row r="106" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K106" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M106" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N106" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O106" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P106" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R106" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="S106" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="T106" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="U106" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="V106" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="W106" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="X106" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y106" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A107" s="20">
+        <f t="shared" ref="A107:P107" si="0">AVERAGEA(A4:A103)</f>
         <v>14.59</v>
       </c>
-      <c r="B104" s="17">
-        <f t="shared" ref="B104:D104" si="1">AVERAGEA(B4:B103)</f>
+      <c r="B107" s="20">
+        <f t="shared" si="0"/>
         <v>13.48</v>
       </c>
-      <c r="C104" s="17">
-        <f t="shared" si="1"/>
+      <c r="C107" s="20">
+        <f t="shared" si="0"/>
         <v>3023.61</v>
       </c>
-      <c r="D104" s="17">
-        <f t="shared" si="1"/>
+      <c r="D107" s="20">
+        <f t="shared" si="0"/>
         <v>402.98</v>
       </c>
-      <c r="E104" s="17" t="e">
-        <f t="shared" ref="E104" si="2">AVERAGEA(E4:E103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F104" s="17" t="e">
-        <f t="shared" ref="F104:G104" si="3">AVERAGEA(F4:F103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G104" s="17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H104" s="17" t="e">
-        <f t="shared" ref="H104" si="4">AVERAGEA(H4:H103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I104" s="17">
-        <f t="shared" ref="I104:J104" si="5">AVERAGEA(I4:I103)</f>
-        <v>17.21</v>
-      </c>
-      <c r="J104" s="17">
-        <f t="shared" si="5"/>
-        <v>15.14</v>
-      </c>
-      <c r="K104" s="17">
-        <f t="shared" ref="K104" si="6">AVERAGEA(K4:K103)</f>
+      <c r="E107" s="20">
+        <f t="shared" si="0"/>
+        <v>20.420000000000002</v>
+      </c>
+      <c r="F107" s="20">
+        <f t="shared" si="0"/>
+        <v>20.440000000000001</v>
+      </c>
+      <c r="G107" s="20">
+        <f t="shared" si="0"/>
+        <v>3007.72</v>
+      </c>
+      <c r="H107" s="20">
+        <f t="shared" si="0"/>
+        <v>469.86</v>
+      </c>
+      <c r="I107" s="21">
+        <f t="shared" si="0"/>
+        <v>15.72</v>
+      </c>
+      <c r="J107" s="20">
+        <f t="shared" si="0"/>
+        <v>14.67</v>
+      </c>
+      <c r="K107" s="20">
+        <f t="shared" si="0"/>
         <v>3018.89</v>
       </c>
-      <c r="L104" s="17">
-        <f t="shared" ref="L104:M104" si="7">AVERAGEA(L4:L103)</f>
+      <c r="L107" s="20">
+        <f t="shared" si="0"/>
         <v>534.69000000000005</v>
       </c>
-      <c r="M104" s="17" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N104" s="17" t="e">
-        <f t="shared" ref="N104" si="8">AVERAGEA(N4:N103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O104" s="17" t="e">
-        <f t="shared" ref="O104:P104" si="9">AVERAGEA(O4:O103)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P104" s="17" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="M107" s="20">
+        <f t="shared" si="0"/>
+        <v>49.22</v>
+      </c>
+      <c r="N107" s="20">
+        <f t="shared" si="0"/>
+        <v>43.69</v>
+      </c>
+      <c r="O107" s="20">
+        <f t="shared" si="0"/>
+        <v>3006.84</v>
+      </c>
+      <c r="P107" s="20">
+        <f t="shared" si="0"/>
+        <v>623.94000000000005</v>
+      </c>
+      <c r="R107" s="19">
+        <f>I107-A107</f>
+        <v>1.1300000000000008</v>
+      </c>
+      <c r="S107" s="19">
+        <f>J107-B107</f>
+        <v>1.1899999999999995</v>
+      </c>
+      <c r="T107" s="18">
+        <f>C107-K107</f>
+        <v>4.7200000000002547</v>
+      </c>
+      <c r="U107" s="19">
+        <f>L107-D107</f>
+        <v>131.71000000000004</v>
+      </c>
+      <c r="V107" s="19">
+        <f>M107-E107</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="W107" s="19">
+        <f>N107-F107</f>
+        <v>23.249999999999996</v>
+      </c>
+      <c r="X107" s="23">
+        <f>G107-O107</f>
+        <v>0.87999999999965439</v>
+      </c>
+      <c r="Y107" s="19">
+        <f>P107-H107</f>
+        <v>154.08000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+      <c r="D111" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C112" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="10">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="E112" s="10">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="F112" s="10">
+        <v>3007.72</v>
+      </c>
+      <c r="G112" s="10">
+        <v>469.86</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="10">
+        <v>49.22</v>
+      </c>
+      <c r="E113" s="10">
+        <v>43.69</v>
+      </c>
+      <c r="F113" s="10">
+        <v>3006.84</v>
+      </c>
+      <c r="G113" s="10">
+        <v>623.94000000000005</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="S5:Z5"/>
+    <mergeCell ref="A104:H104"/>
+    <mergeCell ref="I104:P104"/>
+    <mergeCell ref="R105:U105"/>
+    <mergeCell ref="V105:Y105"/>
+    <mergeCell ref="R104:Y104"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="M105:P105"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="E105:H105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>